--- a/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
+++ b/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
@@ -1,27 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.9.1\PR#1194\Too Many Mods - Compats and Rebalances - 3250762483\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Too Many Mods - Compats and Rebalances - 3250762483\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F3432-3594-455E-B216-18F0BAAFBB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C184E8-45C8-4B22-8DAE-7B13D05AE502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="38340" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240922" sheetId="1" r:id="rId1"/>
     <sheet name="Old_240707" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 삭제됨. 삭제 이전 번역문: '드래곤주의'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 삭제됨. 삭제 이전 번역문: '신화 속 이질적인 인간들이 이끄는 드래곤의 문화입니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 삭제됨. 삭제 이전 번역문: '드워프주의'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 삭제됨. 삭제 이전 번역문: '키 작은 이들로부터 이어진 드워프주의 체제입니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 새로 추가된 노드들 (95개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{82BD0526-BD0B-4D63-9E8F-68A6F50AF1B8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-12-17에 새로 추가된 노드들 (95개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="471">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -197,18 +298,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Stoneborn - Dwarven Style Pack &amp;&amp; Det's Xenotypes - Stoneborn</t>
-  </si>
-  <si>
-    <t>dwarven</t>
-  </si>
-  <si>
-    <t>TMM_Dwarven.description</t>
-  </si>
-  <si>
-    <t>A hardy dwarven culture common among small people.</t>
-  </si>
-  <si>
     <t>Keyed+VCE_CondimentEffects</t>
   </si>
   <si>
@@ -216,9 +305,6 @@
   </si>
   <si>
     <t>Condiment effects</t>
-  </si>
-  <si>
-    <t>Keyed+TMM_VCE_CondimentEffectsLuciferiumPowder</t>
   </si>
   <si>
     <r>
@@ -233,13 +319,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+TMM_VCE_CondimentEffectsLuciferiumPowder</t>
+  </si>
+  <si>
     <t>TMM_VCE_CondimentEffectsLuciferiumPowder</t>
   </si>
   <si>
     <t>Consuming meals that include this condiment increases sight, blood pumping and filtration by 5%, increases consciousness, moving, breathing and digestion by 2%, and reduces pain by 5% for 12 hours.</t>
-  </si>
-  <si>
-    <t>Keyed+TMM_VCE_CondimentEffectsWakeUpPowder</t>
   </si>
   <si>
     <r>
@@ -254,6 +340,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+TMM_VCE_CondimentEffectsWakeUpPowder</t>
+  </si>
+  <si>
     <t>TMM_VCE_CondimentEffectsWakeUpPowder</t>
   </si>
   <si>
@@ -284,6 +373,12 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>CultureDef+TMM_Draconic.label</t>
+  </si>
+  <si>
+    <t>CultureDef</t>
+  </si>
+  <si>
     <t>TMM_Draconic.label</t>
   </si>
   <si>
@@ -291,6 +386,57 @@
   </si>
   <si>
     <t>draconic</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Highmate</t>
+  </si>
+  <si>
+    <t>CultureDef+TMM_Draconic.description</t>
+  </si>
+  <si>
+    <t>TMM_Draconic.description</t>
+  </si>
+  <si>
+    <t>A draconic culture among rimworld tribes led by mythical xenohumans.</t>
+  </si>
+  <si>
+    <t>TMM_PsychicBondRest.label</t>
+  </si>
+  <si>
+    <t>CultureDef+TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <t>TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoneborn - Dwarven Style Pack &amp;&amp;  (( Det's Xenotypes - Stoneborn || Big and Small - Races )) </t>
+  </si>
+  <si>
+    <t>dwarven</t>
+  </si>
+  <si>
+    <t>HediffDef</t>
+  </si>
+  <si>
+    <t>CultureDef+TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <t>TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <t>A hardy dwarven culture common among small people.</t>
+  </si>
+  <si>
+    <t>HediffDef+TMM_PsychicBondRest.label</t>
+  </si>
+  <si>
+    <t>CherryPicker.DefList+TMM_CherryPicker_All.label</t>
+  </si>
+  <si>
+    <t>TMM_CherryPicker_All.label</t>
+  </si>
+  <si>
+    <t>toomanymods: uncheck then re-check this to revive everything</t>
   </si>
   <si>
     <r>
@@ -300,15 +446,9 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>드래곤주의</t>
+      <t>CultureDef</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMM_Draconic.description</t>
-  </si>
-  <si>
-    <t>A draconic culture among rimworld tribes led by mythical xenohumans.</t>
   </si>
   <si>
     <r>
@@ -318,104 +458,1362 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>신화 속 이질적인 인간들이 이끄는 드래곤의 문화입니다.</t>
+      <t>toomanymods: 선택을 취소했다가 다시 선택하면 모든 항목이 다시 활성화됩니다.</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>TMM_Dwarven.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoneborn - Dwarven Style Pack &amp;&amp;  (( Det's Xenotypes - Stoneborn || Big and Small - Races )) </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef+TMM_Dwarven.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>TMM_Dwarven.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneborn - Dwarven Style Pack &amp;&amp; Det's Xenotypes - Stoneborn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>드워프주의</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef+TMM_Dwarven.description</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>패치 ㄴㄴ</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HediffDef+TMM_PsychicBondRest.description</t>
+  </si>
+  <si>
+    <t>Psychic bond (Rest)</t>
+  </si>
+  <si>
+    <t>TMM_PsychicBondRest.description</t>
+  </si>
+  <si>
+    <t>Both psychically-bonded individuals benefit from increased rest rate.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeDemon.label</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef</t>
+  </si>
+  <si>
+    <t>TMM_BecomeDemon.label</t>
+  </si>
+  <si>
+    <t>Vanilla Aspirations Expanded</t>
+  </si>
+  <si>
+    <t>become a demon</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeDemon.description</t>
+  </si>
+  <si>
+    <t>TMM_BecomeDemon.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a demon.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.label</t>
+  </si>
+  <si>
+    <t>TMM_BeBondedToPhoenixOwlcat.label</t>
+  </si>
+  <si>
+    <t>be bonded to an immortal cat</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.description</t>
+  </si>
+  <si>
+    <t>TMM_BeBondedToPhoenixOwlcat.description</t>
+  </si>
+  <si>
+    <t>{0} would like to bond with a cat who won't die easily.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.label</t>
+  </si>
+  <si>
+    <t>TMM_BecomeRainBringer.label</t>
+  </si>
+  <si>
+    <t>become a rain bringer</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.description</t>
+  </si>
+  <si>
+    <t>TMM_BecomeRainBringer.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a rain bringer.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.label</t>
+  </si>
+  <si>
+    <t>TMM_ButcherBehemoth.label</t>
+  </si>
+  <si>
+    <t>butcher behemoth</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.description</t>
+  </si>
+  <si>
+    <t>TMM_ButcherBehemoth.description</t>
+  </si>
+  <si>
+    <t>{0} wants to butcher a behemoth.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.label</t>
+  </si>
+  <si>
+    <t>TMM_EatWithGourmandTongue.label</t>
+  </si>
+  <si>
+    <t>eat meal with gourmand tongue</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.description</t>
+  </si>
+  <si>
+    <t>TMM_EatWithGourmandTongue.description</t>
+  </si>
+  <si>
+    <t>{0} wants to savor the taste of food with gourmand tongue.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.label</t>
+  </si>
+  <si>
+    <t>TMM_BecomeUltimateHumanBomb.label</t>
+  </si>
+  <si>
+    <t>become an ultimate human bomb</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.description</t>
+  </si>
+  <si>
+    <t>TMM_BecomeUltimateHumanBomb.description</t>
+  </si>
+  <si>
+    <t>{0} would love to have an antigrain warhead implanted.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.label</t>
+  </si>
+  <si>
+    <t>TMM_GetVoicelocked.label</t>
+  </si>
+  <si>
+    <t>get voicelocked</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.description</t>
+  </si>
+  <si>
+    <t>TMM_GetVoicelocked.description</t>
+  </si>
+  <si>
+    <t>{0} wants to be voicelocked.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.label</t>
+  </si>
+  <si>
+    <t>TMM_VisitOcularForest.label</t>
+  </si>
+  <si>
+    <t>visit ocular forest</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.description</t>
+  </si>
+  <si>
+    <t>TMM_VisitOcularForest.description</t>
+  </si>
+  <si>
+    <t>{0} wants to take in completely alien scenery.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.label</t>
+  </si>
+  <si>
+    <t>TMM_HearAlluringVoice.label</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.description</t>
+  </si>
+  <si>
+    <t>TMM_HearAlluringVoice.description</t>
+  </si>
+  <si>
+    <t>{0} wants to feel at ease hearing an alluring voice.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.label</t>
+  </si>
+  <si>
+    <t>TMM_BeBondedToFDinosaur.label</t>
+  </si>
+  <si>
+    <t>be bonded to a dinosaur</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.description</t>
+  </si>
+  <si>
+    <t>TMM_BeBondedToFDinosaur.description</t>
+  </si>
+  <si>
+    <t>{0} would like to bond with a dinosaur.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.label</t>
+  </si>
+  <si>
+    <t>TMM_TouchedByGrace.label</t>
+  </si>
+  <si>
+    <t>touched by grace</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.description</t>
+  </si>
+  <si>
+    <t>TMM_TouchedByGrace.description</t>
+  </si>
+  <si>
+    <t>{0} wants to be touched by grace.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHalo.label</t>
+  </si>
+  <si>
+    <t>TMM_GetHalo.label</t>
+  </si>
+  <si>
+    <t>get a halo</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHalo.description</t>
+  </si>
+  <si>
+    <t>TMM_GetHalo.description</t>
+  </si>
+  <si>
+    <t>{0} wants a halo shining like an angel's.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GolemMaster.label</t>
+  </si>
+  <si>
+    <t>TMM_GolemMaster.label</t>
+  </si>
+  <si>
+    <t>become a golem master</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GolemMaster.description</t>
+  </si>
+  <si>
+    <t>TMM_GolemMaster.description</t>
+  </si>
+  <si>
+    <t>{0} wants to controll golems.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.label</t>
+  </si>
+  <si>
+    <t>TMM_GestateApoptosis.label</t>
+  </si>
+  <si>
+    <t>gestate apoptosis</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.description</t>
+  </si>
+  <si>
+    <t>TMM_GestateApoptosis.description</t>
+  </si>
+  <si>
+    <t>{0} wants to gestate the strongest mechanoid on the planet.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.label</t>
+  </si>
+  <si>
+    <t>TMM_CookGourmetGrill.label</t>
+  </si>
+  <si>
+    <t>cook gourmet grill</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.description</t>
+  </si>
+  <si>
+    <t>TMM_CookGourmetGrill.description</t>
+  </si>
+  <si>
+    <t>{0} wants to cook delicious gourmet grill.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.label</t>
+  </si>
+  <si>
+    <t>TMM_MakeGunkanmaki.label</t>
+  </si>
+  <si>
+    <t>make gunkanmaki</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.description</t>
+  </si>
+  <si>
+    <t>TMM_MakeGunkanmaki.description</t>
+  </si>
+  <si>
+    <t>{0} wants to make tasty gunkanmaki.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeBig.label</t>
+  </si>
+  <si>
+    <t>TMM_BecomeBig.label</t>
+  </si>
+  <si>
+    <t>become big</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeBig.description</t>
+  </si>
+  <si>
+    <t>TMM_BecomeBig.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a big person.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.label</t>
+  </si>
+  <si>
+    <t>TMM_BecomeCryoBlooded.label</t>
+  </si>
+  <si>
+    <t>get a cool gene</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.description</t>
+  </si>
+  <si>
+    <t>TMM_BecomeCryoBlooded.description</t>
+  </si>
+  <si>
+    <t>{0} would like to have a cool gene.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHotGene.label</t>
+  </si>
+  <si>
+    <t>TMM_GetHotGene.label</t>
+  </si>
+  <si>
+    <t>get a hot gene</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHotGene.description</t>
+  </si>
+  <si>
+    <t>TMM_GetHotGene.description</t>
+  </si>
+  <si>
+    <t>{0} would like to have a hot gene.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteShootingBook.label</t>
+  </si>
+  <si>
+    <t>write a shooting book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteShootingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about shooting.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteMeleeBook.label</t>
+  </si>
+  <si>
+    <t>write a melee book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteMeleeBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about melee fights.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteConstructionBook.label</t>
+  </si>
+  <si>
+    <t>write a construction book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteConstructionBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about construction.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteMiningBook.label</t>
+  </si>
+  <si>
+    <t>write a mining book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteMiningBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about mining.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteCookingBook.label</t>
+  </si>
+  <si>
+    <t>write a cooking book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteCookingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about cooking.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteGrowingBook.label</t>
+  </si>
+  <si>
+    <t>write a growing book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteGrowingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about growing plants.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteAnimalsBook.label</t>
+  </si>
+  <si>
+    <t>write an animals book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteAnimalsBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about animals.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteMedicalBook.label</t>
+  </si>
+  <si>
+    <t>write a medical book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteMedicalBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a medical book.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteSocialBook.label</t>
+  </si>
+  <si>
+    <t>write a social book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteSocialBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about negotiations.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.label</t>
+  </si>
+  <si>
+    <t>TMM_WriteIntellectualBook.label</t>
+  </si>
+  <si>
+    <t>write an intellectual book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.description</t>
+  </si>
+  <si>
+    <t>TMM_WriteIntellectualBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a thick academic book.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.label</t>
+  </si>
+  <si>
+    <t>TMM_GetPerfectBody.label</t>
+  </si>
+  <si>
+    <t>get a perfect body</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.description</t>
+  </si>
+  <si>
+    <t>TMM_GetPerfectBody.description</t>
+  </si>
+  <si>
+    <t>{0} desires a perfect body.</t>
+  </si>
+  <si>
+    <t>Keyed+LastHumanMeat</t>
+  </si>
+  <si>
+    <t>LastHumanMeat</t>
+  </si>
+  <si>
+    <t>Last cannibalism</t>
+  </si>
+  <si>
+    <t>Keyed+LastHumanMeatDesc</t>
+  </si>
+  <si>
+    <t>LastHumanMeatDesc</t>
+  </si>
+  <si>
+    <t>Because of {PAWN_possessive} belief in {IDEO_name}, {PAWN_nameDef} will become unhappy if {PAWN_pronoun} goes more than {DURATION} days without committing cannibalism.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef</t>
+  </si>
+  <si>
+    <t>AG_IncreasedCommandRange.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Alpha Genes &amp;&amp; Integrated Implants</t>
+  </si>
+  <si>
+    <t>Mech command range +15</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <t>AG_IncreasedCommandRange.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <t>This gene is only active if the carrier is a mechanitor.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.description</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef</t>
+  </si>
+  <si>
+    <t>VRE_Colossal.description</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Insector &amp;&amp; Vanilla Factions Expanded - Insectoids 2 &amp;&amp; Big and Small - Genes &amp; More</t>
+  </si>
+  <si>
+    <t>Carriers of this gene grow to colossal proportions, while reducing movement speed and melee dodge chance.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.description</t>
+  </si>
+  <si>
+    <t>VRE_Microsized.description</t>
+  </si>
+  <si>
+    <t>Carriers of this gene exhibit a microsized stature, significantly smaller than their counterparts.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>VRE_Microsized.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Body size affects HP, melee damage, raid presence, diet, mining speed, carrying capacities, ranged dodge chance and self-production genes.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>VRE_Colossal.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.label</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef</t>
+  </si>
+  <si>
+    <t>UnnaturalDarkness.stages.2.label</t>
+  </si>
+  <si>
+    <t>[LC] Consolidated Traits &amp;&amp; Anomaly</t>
+  </si>
+  <si>
+    <t>unnatural darkness</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.description</t>
+  </si>
+  <si>
+    <t>UnnaturalDarkness.stages.2.description</t>
+  </si>
+  <si>
+    <t>It's unusually dark!</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef</t>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.description</t>
+  </si>
+  <si>
+    <t>Megafauna &amp;&amp; Big and Small - Genes &amp; More &amp;&amp;  ~~ Combat Extended</t>
+  </si>
+  <si>
+    <t>A zygolophodon's enormous tusk. Extremely durable and valuable. Too large to be wielded by a regular human.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.tools.0.label</t>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.tools.0.label</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.tools.1.label</t>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.tools.1.label</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+Gunlink.label</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef</t>
+  </si>
+  <si>
+    <t>Gunlink.label</t>
+  </si>
+  <si>
+    <t>Rimsenal - Spacer Faction Pack &amp;&amp; Royalty</t>
+  </si>
+  <si>
+    <t>target acquisition</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_GreaterToughspikes.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>AG_GreaterToughspikes.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Vanilla Anomaly Expanded - Insanity &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>-0.4% sanity per day</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_GreaterFleshWhip.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>AG_GreaterFleshWhip.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_FleshSpitter.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>AG_FleshSpitter.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.VAspirE.AspirationDef+VAspirE_Winged.description</t>
+  </si>
+  <si>
+    <t>Patches.VAspirE.AspirationDef</t>
+  </si>
+  <si>
+    <t>VAspirE_Winged.description</t>
+  </si>
+  <si>
+    <t>Vanilla Aspirations Expanded &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>{0} wants to get wings capable of flight.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+GR_AlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>GR_AlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>Vanilla Genetics Expanded &amp;&amp; Alpha Animals</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef+GR_CraftAlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef</t>
+  </si>
+  <si>
+    <t>GR_CraftAlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>craft advanced genome excavator</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+VVE_Louie.label</t>
+  </si>
+  <si>
+    <t>VVE_Louie.label</t>
+  </si>
+  <si>
+    <t>Vanilla Vehicles Expanded - Tier 3 &amp;&amp; [LYN] VVE Renamed</t>
+  </si>
+  <si>
+    <t>military helicopter</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+VVE_Cherokee.label</t>
+  </si>
+  <si>
+    <t>VVE_Cherokee.label</t>
+  </si>
+  <si>
+    <t>cargo helicopter</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+VRE_FastShooter.description</t>
+  </si>
+  <si>
+    <t>VRE_FastShooter.description</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Archon</t>
+  </si>
+  <si>
+    <t>Carriers of this gene are good at dealing with recoils, allowing them to fire their ranged weapons significantly faster.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+VRE_SlowShooter.description</t>
+  </si>
+  <si>
+    <t>VRE_SlowShooter.description</t>
+  </si>
+  <si>
+    <t>Carriers of this gene are poor at dealing with recoils and take significantly longer to fire their ranged weapons.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_HivelingVoice.label</t>
+  </si>
+  <si>
+    <t>AG_HivelingVoice.label</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Insector &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>insect voice</t>
+  </si>
+  <si>
+    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.label</t>
+  </si>
+  <si>
+    <t>Patches.HediffDef</t>
+  </si>
+  <si>
+    <t>TMM_AG_IncreasedCommandRange.label</t>
+  </si>
+  <si>
+    <t>increased command range</t>
+  </si>
+  <si>
+    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.description</t>
+  </si>
+  <si>
+    <t>TMM_AG_IncreasedCommandRange.description</t>
+  </si>
+  <si>
+    <t>This person has an increased range when commanding drafted mechanoids.</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Draconic.label</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Draconic.description</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.label</t>
+  </si>
+  <si>
+    <t>TMM_ActiveVoicelock_Masochist.stages.0.label</t>
+  </si>
+  <si>
+    <t>Integrated Implants</t>
+  </si>
+  <si>
+    <t>masochist voicelocked</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.description</t>
+  </si>
+  <si>
+    <t>TMM_ActiveVoicelock_Masochist.stages.0.description</t>
+  </si>
+  <si>
+    <t>I am being silenced by an implant. It feels so good!</t>
+  </si>
+  <si>
+    <t>이 유전자의 보유자는 메카나이터가 될 경우 더 먼 거리에서 메카노이드를 조종할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신적 유대감 (휴식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신적으로 유대감을 가진 두 사람 모두 휴식 속도가 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 되기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸의 고양이와 유대감 형성하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자의 보유자는 거대한 체구로 성장하는 대신, 이동 속도와 근접 공격 회피율이 낮아집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자의 보유자는 동종에 비해 훨씬 작은 체구를 가지게 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자연적 어둠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어두워!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼끝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지골로포돈의 거대한 엄니입니다. 매우 단단하고 귀한 물건이지만, 일반적인 인간이 사용하기에는 너무 큽니다.</t>
+  </si>
+  <si>
+    <t>봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.4% 정신력 감소/일</t>
+  </si>
+  <si>
+    <t>{0}(은)는 비행을 위한 날개를 원합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced genome excavator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 유전물질 추출기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 유전물질 추출기 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군용 헬리콥터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화물 헬리콥터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자의 보유자는 반동 제어 능력이 부족해 원거리 무기를 훨씬 느리게 발사합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 유전자의 보유자는 반동 제어 능력이 뛰어나 원거리 무기를 훨씬 빠르게 발사합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤충 목소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카노이드 명령 범위 +15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령 범위 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 사람은 소집된 메카노이드를 더 멀리서도 조종할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤주의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화 속 이종형들이 이끄는 드래곤들의 문화입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>드워프주의</t>
-  </si>
-  <si>
-    <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
-  </si>
-  <si>
-    <t>CherryPicker.DefList+TMM_CherryPicker_All.label</t>
-  </si>
-  <si>
-    <t>TMM_CherryPicker_All.label</t>
-  </si>
-  <si>
-    <t>toomanymods: uncheck then re-check this to revive everything</t>
-  </si>
-  <si>
-    <t>toomanymods: 선택을 취소했다가 다시 선택하면 모든 항목이 다시 활성화됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Draconic.label</t>
-  </si>
-  <si>
-    <t>CultureDef</t>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Draconic.description</t>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.label</t>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.description</t>
-  </si>
-  <si>
-    <t>패치 ㄴㄴ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드워프주의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMM_Dwarven.label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막 영역을 활성화합니다. 5초 동안 지속되며 90초의 재사용 대기시간이 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 부유한 건물당 2-6% ({0} / {1})</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 부유한 건물당 2-6% (최대 {0})</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 슈퍼컴퓨터당 {2} ({0} / {1})</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 슈퍼컴퓨터당 {1} (최대 {0})</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>철갑기병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toomanymods: 기본적으로 제거된 것들을 되돌리려면 이 옵션을 비활성화하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 작은 이들로부터 이어진 드워프들의 문화입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 입이 강제로 틀어막혔어. 엄청 기분이 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 소거장치가 활성화됨 (피학적)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 {IDEO_name}(을)를 믿고 있으므로 인육을 먹지 못한 날이 {DURATION}일을 초과하면 기분이 나빠집니다.</t>
+  </si>
+  <si>
+    <t>마지막으로 섭취한 인육</t>
+  </si>
+  <si>
+    <t>배헤모스 도축하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 베헤모스를 도축하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 쉽게 죽지 않는 고양이와 유대감을 형성하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 악마가 되고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미식가 혀로 음식을 먹기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 미식가 혀로 음식의 맛을 음미하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 폭탄 되기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 몸에 반물질탄 기폭장치를 설치하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 소거장치 설치하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 자신의 성대를 잠그고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈알 숲 방문하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 외계의 풍경을 감상하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비 유도 유전자 얻기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 비를 뿌리고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 사격에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조련 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의학 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사교 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구 책 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 격투에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 건설에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 채굴에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 조리에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 원예에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 조련에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 의학에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 사교에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 연구에 관한 책을 저술하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽한 몸 얻기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 완벽한 몸을 가지고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커지기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 몸이 커지고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군칸마키 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 맛있는 군칸마키를 만들고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹적인 목소리 듣기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listen to an alluring voice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 매혹적인 목소리를 듣고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공룡과 유대감 형성하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 공룡과 유대감을 형성하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가운 유전자 얻기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 차가운 유전자를 얻고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨거운 유전자 얻기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 뜨거운 유전자를 얻고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은총의 손길 받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 은총의 손길을 받고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후광 얻기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 천사처럼 빛나는 후광을 얻고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘 주인 되기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 골렘을 조종하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아포토시스 배양하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 가장 강력한 메카노이드를 배양하고 싶어합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미식적인 직화구이 조리하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}(은)는 미식적인 직화구이를 만들고 싶어합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +1821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -443,19 +1841,33 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +1882,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87CEEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,20 +1914,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="메모" xfId="1" builtinId="10"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,11 +2225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -970,118 +2385,112 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>64</v>
@@ -1089,53 +2498,1942 @@
       <c r="D15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F95" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F97" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
+      <c r="F111" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1143,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6083D7E-A76F-4617-9B61-287DE5998752}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +4491,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1210,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1227,7 +4525,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1244,7 +4542,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1261,7 +4559,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1278,7 +4576,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1295,57 +4593,57 @@
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
+++ b/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Too Many Mods - Compats and Rebalances - 3250762483\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C184E8-45C8-4B22-8DAE-7B13D05AE502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D573D-BC7C-4F0E-A18A-4B3A5B8D6DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,20 @@
     <author>bjmi0</author>
   </authors>
   <commentList>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-05-06 이전의 원문: 'cataphract'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{82BD0526-BD0B-4D63-9E8F-68A6F50AF1B8}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -117,12 +130,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-05-06에 새로 추가된 노드들 (17개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F114" authorId="0" shapeId="0" xr:uid="{8C407957-E247-4407-9B07-4A108F2BF6AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-05-06에 새로 추가된 노드들 (17개)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="544">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -388,55 +427,2068 @@
     <t>draconic</t>
   </si>
   <si>
+    <t>CultureDef+TMM_Draconic.description</t>
+  </si>
+  <si>
+    <t>TMM_Draconic.description</t>
+  </si>
+  <si>
+    <t>A draconic culture among rimworld tribes led by mythical xenohumans.</t>
+  </si>
+  <si>
+    <t>CultureDef+TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <t>TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoneborn - Dwarven Style Pack &amp;&amp;  (( Det's Xenotypes - Stoneborn || Big and Small - Races )) </t>
+  </si>
+  <si>
+    <t>dwarven</t>
+  </si>
+  <si>
+    <t>CultureDef+TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <t>TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <t>A hardy dwarven culture common among small people.</t>
+  </si>
+  <si>
+    <t>CherryPicker.DefList+TMM_CherryPicker_All.label</t>
+  </si>
+  <si>
+    <t>TMM_CherryPicker_All.label</t>
+  </si>
+  <si>
+    <t>toomanymods: uncheck then re-check this to revive everything</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>toomanymods: 선택을 취소했다가 다시 선택하면 모든 항목이 다시 활성화됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HediffDef+TMM_PsychicBondRest.label</t>
+  </si>
+  <si>
+    <t>HediffDef</t>
+  </si>
+  <si>
+    <t>TMM_PsychicBondRest.label</t>
+  </si>
+  <si>
     <t>Vanilla Races Expanded - Highmate</t>
   </si>
   <si>
-    <t>CultureDef+TMM_Draconic.description</t>
-  </si>
-  <si>
-    <t>TMM_Draconic.description</t>
-  </si>
-  <si>
-    <t>A draconic culture among rimworld tribes led by mythical xenohumans.</t>
-  </si>
-  <si>
-    <t>TMM_PsychicBondRest.label</t>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.label</t>
-  </si>
-  <si>
-    <t>TMM_Dwarven.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoneborn - Dwarven Style Pack &amp;&amp;  (( Det's Xenotypes - Stoneborn || Big and Small - Races )) </t>
-  </si>
-  <si>
-    <t>dwarven</t>
-  </si>
-  <si>
-    <t>HediffDef</t>
-  </si>
-  <si>
-    <t>CultureDef+TMM_Dwarven.description</t>
-  </si>
-  <si>
-    <t>TMM_Dwarven.description</t>
-  </si>
-  <si>
-    <t>A hardy dwarven culture common among small people.</t>
-  </si>
-  <si>
-    <t>HediffDef+TMM_PsychicBondRest.label</t>
-  </si>
-  <si>
-    <t>CherryPicker.DefList+TMM_CherryPicker_All.label</t>
-  </si>
-  <si>
-    <t>TMM_CherryPicker_All.label</t>
-  </si>
-  <si>
-    <t>toomanymods: uncheck then re-check this to revive everything</t>
+    <t>Psychic bond (Rest)</t>
+  </si>
+  <si>
+    <t>HediffDef+TMM_PsychicBondRest.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신적 유대감 (휴식)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_PsychicBondRest.description</t>
+  </si>
+  <si>
+    <t>Both psychically-bonded individuals benefit from increased rest rate.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeDemon.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신적으로 유대감을 가진 두 사람 모두 휴식 속도가 증가합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef</t>
+  </si>
+  <si>
+    <t>TMM_BecomeDemon.label</t>
+  </si>
+  <si>
+    <t>Vanilla Aspirations Expanded</t>
+  </si>
+  <si>
+    <t>become a demon</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeDemon.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>악마 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeDemon.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a demon.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 악마가 되고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BeBondedToPhoenixOwlcat.label</t>
+  </si>
+  <si>
+    <t>be bonded to an immortal cat</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>불멸의 고양이와 유대감 형성하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BeBondedToPhoenixOwlcat.description</t>
+  </si>
+  <si>
+    <t>{0} would like to bond with a cat who won't die easily.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 쉽게 죽지 않는 고양이와 유대감을 형성하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeRainBringer.label</t>
+  </si>
+  <si>
+    <t>become a rain bringer</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>비 유도 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeRainBringer.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a rain bringer.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 비를 뿌리고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_ButcherBehemoth.label</t>
+  </si>
+  <si>
+    <t>butcher behemoth</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>배헤모스 도축하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_ButcherBehemoth.description</t>
+  </si>
+  <si>
+    <t>{0} wants to butcher a behemoth.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 베헤모스를 도축하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_EatWithGourmandTongue.label</t>
+  </si>
+  <si>
+    <t>eat meal with gourmand tongue</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미식가 혀로 음식을 먹기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_EatWithGourmandTongue.description</t>
+  </si>
+  <si>
+    <t>{0} wants to savor the taste of food with gourmand tongue.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 미식가 혀로 음식의 맛을 음미하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeUltimateHumanBomb.label</t>
+  </si>
+  <si>
+    <t>become an ultimate human bomb</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인간 폭탄 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeUltimateHumanBomb.description</t>
+  </si>
+  <si>
+    <t>{0} would love to have an antigrain warhead implanted.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 몸에 반물질탄 기폭장치를 설치하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetVoicelocked.label</t>
+  </si>
+  <si>
+    <t>get voicelocked</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>음성 소거장치 설치하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetVoicelocked.description</t>
+  </si>
+  <si>
+    <t>{0} wants to be voicelocked.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 자신의 성대를 잠그고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_VisitOcularForest.label</t>
+  </si>
+  <si>
+    <t>visit ocular forest</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>눈알 숲 방문하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_VisitOcularForest.description</t>
+  </si>
+  <si>
+    <t>{0} wants to take in completely alien scenery.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 외계의 풍경을 감상하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_HearAlluringVoice.label</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listen to an alluring voice</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>매혹적인 목소리 듣기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_HearAlluringVoice.description</t>
+  </si>
+  <si>
+    <t>{0} wants to feel at ease hearing an alluring voice.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 매혹적인 목소리를 듣고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BeBondedToFDinosaur.label</t>
+  </si>
+  <si>
+    <t>be bonded to a dinosaur</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공룡과 유대감 형성하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BeBondedToFDinosaur.description</t>
+  </si>
+  <si>
+    <t>{0} would like to bond with a dinosaur.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 공룡과 유대감을 형성하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_TouchedByGrace.label</t>
+  </si>
+  <si>
+    <t>touched by grace</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>은총의 손길 받기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_TouchedByGrace.description</t>
+  </si>
+  <si>
+    <t>{0} wants to be touched by grace.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHalo.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 은총의 손길을 받고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetHalo.label</t>
+  </si>
+  <si>
+    <t>get a halo</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHalo.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>후광 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetHalo.description</t>
+  </si>
+  <si>
+    <t>{0} wants a halo shining like an angel's.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GolemMaster.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 천사처럼 빛나는 후광을 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GolemMaster.label</t>
+  </si>
+  <si>
+    <t>become a golem master</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GolemMaster.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>골렘 주인 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GolemMaster.description</t>
+  </si>
+  <si>
+    <t>{0} wants to controll golems.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 골렘을 조종하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GestateApoptosis.label</t>
+  </si>
+  <si>
+    <t>gestate apoptosis</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아포토시스 배양하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GestateApoptosis.description</t>
+  </si>
+  <si>
+    <t>{0} wants to gestate the strongest mechanoid on the planet.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 가장 강력한 메카노이드를 배양하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_CookGourmetGrill.label</t>
+  </si>
+  <si>
+    <t>cook gourmet grill</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미식적인 직화구이 조리하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_CookGourmetGrill.description</t>
+  </si>
+  <si>
+    <t>{0} wants to cook delicious gourmet grill.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 미식적인 직화구이를 만들고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_MakeGunkanmaki.label</t>
+  </si>
+  <si>
+    <t>make gunkanmaki</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>군칸마키 만들기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_MakeGunkanmaki.description</t>
+  </si>
+  <si>
+    <t>{0} wants to make tasty gunkanmaki.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeBig.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 맛있는 군칸마키를 만들고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeBig.label</t>
+  </si>
+  <si>
+    <t>become big</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeBig.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커지기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeBig.description</t>
+  </si>
+  <si>
+    <t>{0} wants to become a big person.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 몸이 커지고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeCryoBlooded.label</t>
+  </si>
+  <si>
+    <t>get a cool gene</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>차가운 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_BecomeCryoBlooded.description</t>
+  </si>
+  <si>
+    <t>{0} would like to have a cool gene.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHotGene.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 차가운 유전자를 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetHotGene.label</t>
+  </si>
+  <si>
+    <t>get a hot gene</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetHotGene.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뜨거운 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetHotGene.description</t>
+  </si>
+  <si>
+    <t>{0} would like to have a hot gene.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 뜨거운 유전자를 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteShootingBook.label</t>
+  </si>
+  <si>
+    <t>write a shooting book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사격 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteShootingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about shooting.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 사격에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMeleeBook.label</t>
+  </si>
+  <si>
+    <t>write a melee book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>격투 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMeleeBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about melee fights.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 격투에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteConstructionBook.label</t>
+  </si>
+  <si>
+    <t>write a construction book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteConstructionBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about construction.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 건설에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMiningBook.label</t>
+  </si>
+  <si>
+    <t>write a mining book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>채굴 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMiningBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about mining.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 채굴에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteCookingBook.label</t>
+  </si>
+  <si>
+    <t>write a cooking book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조리 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteCookingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about cooking.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 조리에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteGrowingBook.label</t>
+  </si>
+  <si>
+    <t>write a growing book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>원예 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteGrowingBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about growing plants.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 원예에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteAnimalsBook.label</t>
+  </si>
+  <si>
+    <t>write an animals book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조련 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteAnimalsBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about animals.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 조련에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMedicalBook.label</t>
+  </si>
+  <si>
+    <t>write a medical book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>의학 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteMedicalBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a medical book.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 의학에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteSocialBook.label</t>
+  </si>
+  <si>
+    <t>write a social book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사교 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteSocialBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a book about negotiations.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 사교에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteIntellectualBook.label</t>
+  </si>
+  <si>
+    <t>write an intellectual book</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연구 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_WriteIntellectualBook.description</t>
+  </si>
+  <si>
+    <t>{0} wants to write a thick academic book.</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 연구에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetPerfectBody.label</t>
+  </si>
+  <si>
+    <t>get a perfect body</t>
+  </si>
+  <si>
+    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>완벽한 몸 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_GetPerfectBody.description</t>
+  </si>
+  <si>
+    <t>{0} desires a perfect body.</t>
+  </si>
+  <si>
+    <t>Keyed+LastHumanMeat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 완벽한 몸을 가지고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastHumanMeat</t>
+  </si>
+  <si>
+    <t>Last cannibalism</t>
+  </si>
+  <si>
+    <t>마지막으로 섭취한 인육</t>
+  </si>
+  <si>
+    <t>Keyed+LastHumanMeatDesc</t>
+  </si>
+  <si>
+    <t>LastHumanMeatDesc</t>
+  </si>
+  <si>
+    <t>Because of {PAWN_possessive} belief in {IDEO_name}, {PAWN_nameDef} will become unhappy if {PAWN_pronoun} goes more than {DURATION} days without committing cannibalism.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(은)는 {IDEO_name}(을)를 믿고 있으므로 인육을 먹지 못한 날이 {DURATION}일을 초과하면 기분이 나빠집니다.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef</t>
+  </si>
+  <si>
+    <t>AG_IncreasedCommandRange.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Alpha Genes &amp;&amp; Integrated Implants</t>
+  </si>
+  <si>
+    <t>Mech command range +15</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>메카노이드 명령 범위 +15</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG_IncreasedCommandRange.customEffectDescriptions.1</t>
+  </si>
+  <si>
+    <t>This gene is only active if the carrier is a mechanitor.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 메카나이터가 될 경우 더 먼 거리에서 메카노이드를 조종할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef</t>
+  </si>
+  <si>
+    <t>VRE_Colossal.description</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Insector &amp;&amp; Vanilla Factions Expanded - Insectoids 2 &amp;&amp; Big and Small - Genes &amp; More</t>
+  </si>
+  <si>
+    <t>Carriers of this gene grow to colossal proportions, while reducing movement speed and melee dodge chance.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 거대한 체구로 성장하는 대신, 이동 속도와 근접 공격 회피율이 낮아집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRE_Microsized.description</t>
+  </si>
+  <si>
+    <t>Carriers of this gene exhibit a microsized stature, significantly smaller than their counterparts.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 동종에 비해 훨씬 작은 체구를 가지게 됩니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRE_Microsized.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Body size affects HP, melee damage, raid presence, diet, mining speed, carrying capacities, ranged dodge chance and self-production genes.</t>
+  </si>
+  <si>
+    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRE_Colossal.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.label</t>
+  </si>
+  <si>
+    <t>UnnaturalDarkness.stages.2.label</t>
+  </si>
+  <si>
+    <t>[LC] Consolidated Traits &amp;&amp; Anomaly</t>
+  </si>
+  <si>
+    <t>unnatural darkness</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>부자연적 어둠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnnaturalDarkness.stages.2.description</t>
+  </si>
+  <si>
+    <t>It's unusually dark!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>엄청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t>어두워!</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef</t>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.description</t>
+  </si>
+  <si>
+    <t>Megafauna &amp;&amp; Big and Small - Genes &amp; More &amp;&amp;  ~~ Combat Extended</t>
+  </si>
+  <si>
+    <t>A zygolophodon's enormous tusk. Extremely durable and valuable. Too large to be wielded by a regular human.</t>
+  </si>
+  <si>
+    <t>지골로포돈의 거대한 엄니입니다. 매우 단단하고 귀한 물건이지만, 일반적인 인간이 사용하기에는 너무 큽니다.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.tools.0.label</t>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.tools.0.label</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+ZygolophodonTusk.tools.1.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>칼끝</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZygolophodonTusk.tools.1.label</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+Gunlink.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>봉</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef</t>
+  </si>
+  <si>
+    <t>Gunlink.label</t>
+  </si>
+  <si>
+    <t>Rimsenal - Spacer Faction Pack &amp;&amp; Royalty</t>
+  </si>
+  <si>
+    <t>target acquisition</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_GreaterToughspikes.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목표 획득</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG_GreaterToughspikes.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Vanilla Anomaly Expanded - Insanity &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>-0.4% sanity per day</t>
+  </si>
+  <si>
+    <t>-0.4% 정신력 감소/일</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_GreaterFleshWhip.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>AG_GreaterFleshWhip.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_FleshSpitter.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>AG_FleshSpitter.customEffectDescriptions.0</t>
+  </si>
+  <si>
+    <t>Patches.VAspirE.AspirationDef+VAspirE_Winged.description</t>
+  </si>
+  <si>
+    <t>Patches.VAspirE.AspirationDef</t>
+  </si>
+  <si>
+    <t>VAspirE_Winged.description</t>
+  </si>
+  <si>
+    <t>Vanilla Aspirations Expanded &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>{0} wants to get wings capable of flight.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+GR_AlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 비행을 위한 날개를 원합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR_AlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>Vanilla Genetics Expanded &amp;&amp; Alpha Animals</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef+GR_CraftAlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>advanced genome excavator</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고급 유전물질 추출기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.RecipeDef</t>
+  </si>
+  <si>
+    <t>GR_CraftAlphaGenomeExcavator.label</t>
+  </si>
+  <si>
+    <t>craft advanced genome excavator</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+VVE_Louie.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>고급 유전물질 추출기 만들기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VVE_Louie.label</t>
+  </si>
+  <si>
+    <t>Vanilla Vehicles Expanded - Tier 3 &amp;&amp; [LYN] VVE Renamed</t>
+  </si>
+  <si>
+    <t>military helicopter</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+VVE_Cherokee.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>군용 헬리콥터</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VVE_Cherokee.label</t>
+  </si>
+  <si>
+    <t>cargo helicopter</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+VRE_FastShooter.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>화물 헬리콥터</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRE_FastShooter.description</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Archon</t>
+  </si>
+  <si>
+    <t>Carriers of this gene are good at dealing with recoils, allowing them to fire their ranged weapons significantly faster.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+VRE_SlowShooter.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 반동 제어 능력이 뛰어나 원거리 무기를 훨씬 빠르게 발사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRE_SlowShooter.description</t>
+  </si>
+  <si>
+    <t>Carriers of this gene are poor at dealing with recoils and take significantly longer to fire their ranged weapons.</t>
+  </si>
+  <si>
+    <t>Patches.GeneDef+AG_HivelingVoice.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 유전자의 보유자는 반동 제어 능력이 부족해 원거리 무기를 훨씬 느리게 발사합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>AG_HivelingVoice.label</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Insector &amp;&amp; Alpha Genes</t>
+  </si>
+  <si>
+    <t>insect voice</t>
+  </si>
+  <si>
+    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>곤충 목소리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.HediffDef</t>
+  </si>
+  <si>
+    <t>TMM_AG_IncreasedCommandRange.label</t>
+  </si>
+  <si>
+    <t>increased command range</t>
+  </si>
+  <si>
+    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>명령 범위 증가</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_AG_IncreasedCommandRange.description</t>
+  </si>
+  <si>
+    <t>This person has an increased range when commanding drafted mechanoids.</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Draconic.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 사람은 소집된 메카노이드를 더 멀리서도 조종할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.CultureDef</t>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Draconic.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>드래곤주의</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Dwarven.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>신화 속 이종형들이 이끄는 드래곤들의 문화입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.CultureDef+TMM_Dwarven.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>드워프주의</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>키 작은 이들로부터 이어진 드워프들의 문화입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_ActiveVoicelock_Masochist.stages.0.label</t>
+  </si>
+  <si>
+    <t>Integrated Implants</t>
+  </si>
+  <si>
+    <t>masochist voicelocked</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>음성 소거장치가 활성화됨 (피학적)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_ActiveVoicelock_Masochist.stages.0.description</t>
+  </si>
+  <si>
+    <t>I am being silenced by an implant. It feels so good!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef+TMM_Dwarven.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>내 입이 강제로 틀어막혔어. 엄청 기분이 좋아!</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -458,30 +2510,6 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>toomanymods: 선택을 취소했다가 다시 선택하면 모든 항목이 다시 활성화됩니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>CultureDef+TMM_Dwarven.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
       <t>TMM_Dwarven.label</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -497,7 +2525,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>드워프주의</t>
+      <t>패치 ㄴㄴ</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -521,1299 +2549,245 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>패치 ㄴㄴ</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
       <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>HediffDef+TMM_PsychicBondRest.description</t>
-  </si>
-  <si>
-    <t>Psychic bond (Rest)</t>
-  </si>
-  <si>
-    <t>TMM_PsychicBondRest.description</t>
-  </si>
-  <si>
-    <t>Both psychically-bonded individuals benefit from increased rest rate.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeDemon.label</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef</t>
-  </si>
-  <si>
-    <t>TMM_BecomeDemon.label</t>
-  </si>
-  <si>
-    <t>Vanilla Aspirations Expanded</t>
-  </si>
-  <si>
-    <t>become a demon</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeDemon.description</t>
-  </si>
-  <si>
-    <t>TMM_BecomeDemon.description</t>
-  </si>
-  <si>
-    <t>{0} wants to become a demon.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.label</t>
-  </si>
-  <si>
-    <t>TMM_BeBondedToPhoenixOwlcat.label</t>
-  </si>
-  <si>
-    <t>be bonded to an immortal cat</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.description</t>
-  </si>
-  <si>
-    <t>TMM_BeBondedToPhoenixOwlcat.description</t>
-  </si>
-  <si>
-    <t>{0} would like to bond with a cat who won't die easily.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.label</t>
-  </si>
-  <si>
-    <t>TMM_BecomeRainBringer.label</t>
-  </si>
-  <si>
-    <t>become a rain bringer</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.description</t>
-  </si>
-  <si>
-    <t>TMM_BecomeRainBringer.description</t>
-  </si>
-  <si>
-    <t>{0} wants to become a rain bringer.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.label</t>
-  </si>
-  <si>
-    <t>TMM_ButcherBehemoth.label</t>
-  </si>
-  <si>
-    <t>butcher behemoth</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.description</t>
-  </si>
-  <si>
-    <t>TMM_ButcherBehemoth.description</t>
-  </si>
-  <si>
-    <t>{0} wants to butcher a behemoth.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.label</t>
-  </si>
-  <si>
-    <t>TMM_EatWithGourmandTongue.label</t>
-  </si>
-  <si>
-    <t>eat meal with gourmand tongue</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.description</t>
-  </si>
-  <si>
-    <t>TMM_EatWithGourmandTongue.description</t>
-  </si>
-  <si>
-    <t>{0} wants to savor the taste of food with gourmand tongue.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.label</t>
-  </si>
-  <si>
-    <t>TMM_BecomeUltimateHumanBomb.label</t>
-  </si>
-  <si>
-    <t>become an ultimate human bomb</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.description</t>
-  </si>
-  <si>
-    <t>TMM_BecomeUltimateHumanBomb.description</t>
-  </si>
-  <si>
-    <t>{0} would love to have an antigrain warhead implanted.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.label</t>
-  </si>
-  <si>
-    <t>TMM_GetVoicelocked.label</t>
-  </si>
-  <si>
-    <t>get voicelocked</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetVoicelocked.description</t>
-  </si>
-  <si>
-    <t>TMM_GetVoicelocked.description</t>
-  </si>
-  <si>
-    <t>{0} wants to be voicelocked.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.label</t>
-  </si>
-  <si>
-    <t>TMM_VisitOcularForest.label</t>
-  </si>
-  <si>
-    <t>visit ocular forest</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_VisitOcularForest.description</t>
-  </si>
-  <si>
-    <t>TMM_VisitOcularForest.description</t>
-  </si>
-  <si>
-    <t>{0} wants to take in completely alien scenery.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.label</t>
-  </si>
-  <si>
-    <t>TMM_HearAlluringVoice.label</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.description</t>
-  </si>
-  <si>
-    <t>TMM_HearAlluringVoice.description</t>
-  </si>
-  <si>
-    <t>{0} wants to feel at ease hearing an alluring voice.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.label</t>
-  </si>
-  <si>
-    <t>TMM_BeBondedToFDinosaur.label</t>
-  </si>
-  <si>
-    <t>be bonded to a dinosaur</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.description</t>
-  </si>
-  <si>
-    <t>TMM_BeBondedToFDinosaur.description</t>
-  </si>
-  <si>
-    <t>{0} would like to bond with a dinosaur.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.label</t>
-  </si>
-  <si>
-    <t>TMM_TouchedByGrace.label</t>
-  </si>
-  <si>
-    <t>touched by grace</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_TouchedByGrace.description</t>
-  </si>
-  <si>
-    <t>TMM_TouchedByGrace.description</t>
-  </si>
-  <si>
-    <t>{0} wants to be touched by grace.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetHalo.label</t>
-  </si>
-  <si>
-    <t>TMM_GetHalo.label</t>
-  </si>
-  <si>
-    <t>get a halo</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetHalo.description</t>
-  </si>
-  <si>
-    <t>TMM_GetHalo.description</t>
-  </si>
-  <si>
-    <t>{0} wants a halo shining like an angel's.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GolemMaster.label</t>
-  </si>
-  <si>
-    <t>TMM_GolemMaster.label</t>
-  </si>
-  <si>
-    <t>become a golem master</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GolemMaster.description</t>
-  </si>
-  <si>
-    <t>TMM_GolemMaster.description</t>
-  </si>
-  <si>
-    <t>{0} wants to controll golems.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.label</t>
-  </si>
-  <si>
-    <t>TMM_GestateApoptosis.label</t>
-  </si>
-  <si>
-    <t>gestate apoptosis</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GestateApoptosis.description</t>
-  </si>
-  <si>
-    <t>TMM_GestateApoptosis.description</t>
-  </si>
-  <si>
-    <t>{0} wants to gestate the strongest mechanoid on the planet.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.label</t>
-  </si>
-  <si>
-    <t>TMM_CookGourmetGrill.label</t>
-  </si>
-  <si>
-    <t>cook gourmet grill</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.description</t>
-  </si>
-  <si>
-    <t>TMM_CookGourmetGrill.description</t>
-  </si>
-  <si>
-    <t>{0} wants to cook delicious gourmet grill.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.label</t>
-  </si>
-  <si>
-    <t>TMM_MakeGunkanmaki.label</t>
-  </si>
-  <si>
-    <t>make gunkanmaki</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.description</t>
-  </si>
-  <si>
-    <t>TMM_MakeGunkanmaki.description</t>
-  </si>
-  <si>
-    <t>{0} wants to make tasty gunkanmaki.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeBig.label</t>
-  </si>
-  <si>
-    <t>TMM_BecomeBig.label</t>
-  </si>
-  <si>
-    <t>become big</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeBig.description</t>
-  </si>
-  <si>
-    <t>TMM_BecomeBig.description</t>
-  </si>
-  <si>
-    <t>{0} wants to become a big person.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.label</t>
-  </si>
-  <si>
-    <t>TMM_BecomeCryoBlooded.label</t>
-  </si>
-  <si>
-    <t>get a cool gene</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.description</t>
-  </si>
-  <si>
-    <t>TMM_BecomeCryoBlooded.description</t>
-  </si>
-  <si>
-    <t>{0} would like to have a cool gene.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetHotGene.label</t>
-  </si>
-  <si>
-    <t>TMM_GetHotGene.label</t>
-  </si>
-  <si>
-    <t>get a hot gene</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetHotGene.description</t>
-  </si>
-  <si>
-    <t>TMM_GetHotGene.description</t>
-  </si>
-  <si>
-    <t>{0} would like to have a hot gene.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteShootingBook.label</t>
-  </si>
-  <si>
-    <t>write a shooting book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteShootingBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteShootingBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about shooting.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteMeleeBook.label</t>
-  </si>
-  <si>
-    <t>write a melee book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteMeleeBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about melee fights.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteConstructionBook.label</t>
-  </si>
-  <si>
-    <t>write a construction book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteConstructionBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about construction.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteMiningBook.label</t>
-  </si>
-  <si>
-    <t>write a mining book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMiningBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteMiningBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about mining.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteCookingBook.label</t>
-  </si>
-  <si>
-    <t>write a cooking book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteCookingBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteCookingBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about cooking.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteGrowingBook.label</t>
-  </si>
-  <si>
-    <t>write a growing book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteGrowingBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about growing plants.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteAnimalsBook.label</t>
-  </si>
-  <si>
-    <t>write an animals book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteAnimalsBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about animals.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteMedicalBook.label</t>
-  </si>
-  <si>
-    <t>write a medical book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteMedicalBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a medical book.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteSocialBook.label</t>
-  </si>
-  <si>
-    <t>write a social book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteSocialBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteSocialBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a book about negotiations.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.label</t>
-  </si>
-  <si>
-    <t>TMM_WriteIntellectualBook.label</t>
-  </si>
-  <si>
-    <t>write an intellectual book</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.description</t>
-  </si>
-  <si>
-    <t>TMM_WriteIntellectualBook.description</t>
-  </si>
-  <si>
-    <t>{0} wants to write a thick academic book.</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.label</t>
-  </si>
-  <si>
-    <t>TMM_GetPerfectBody.label</t>
-  </si>
-  <si>
-    <t>get a perfect body</t>
-  </si>
-  <si>
-    <t>VAspirE.AspirationDef+TMM_GetPerfectBody.description</t>
-  </si>
-  <si>
-    <t>TMM_GetPerfectBody.description</t>
-  </si>
-  <si>
-    <t>{0} desires a perfect body.</t>
-  </si>
-  <si>
-    <t>Keyed+LastHumanMeat</t>
-  </si>
-  <si>
-    <t>LastHumanMeat</t>
-  </si>
-  <si>
-    <t>Last cannibalism</t>
-  </si>
-  <si>
-    <t>Keyed+LastHumanMeatDesc</t>
-  </si>
-  <si>
-    <t>LastHumanMeatDesc</t>
-  </si>
-  <si>
-    <t>Because of {PAWN_possessive} belief in {IDEO_name}, {PAWN_nameDef} will become unhappy if {PAWN_pronoun} goes more than {DURATION} days without committing cannibalism.</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef</t>
-  </si>
-  <si>
-    <t>AG_IncreasedCommandRange.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Alpha Genes &amp;&amp; Integrated Implants</t>
-  </si>
-  <si>
-    <t>Mech command range +15</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.1</t>
-  </si>
-  <si>
-    <t>AG_IncreasedCommandRange.customEffectDescriptions.1</t>
-  </si>
-  <si>
-    <t>This gene is only active if the carrier is a mechanitor.</t>
-  </si>
-  <si>
-    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.description</t>
-  </si>
-  <si>
-    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef</t>
-  </si>
-  <si>
-    <t>VRE_Colossal.description</t>
-  </si>
-  <si>
-    <t>Vanilla Races Expanded - Insector &amp;&amp; Vanilla Factions Expanded - Insectoids 2 &amp;&amp; Big and Small - Genes &amp; More</t>
-  </si>
-  <si>
-    <t>Carriers of this gene grow to colossal proportions, while reducing movement speed and melee dodge chance.</t>
-  </si>
-  <si>
-    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.description</t>
-  </si>
-  <si>
-    <t>VRE_Microsized.description</t>
-  </si>
-  <si>
-    <t>Carriers of this gene exhibit a microsized stature, significantly smaller than their counterparts.</t>
-  </si>
-  <si>
-    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>VRE_Microsized.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Body size affects HP, melee damage, raid presence, diet, mining speed, carrying capacities, ranged dodge chance and self-production genes.</t>
-  </si>
-  <si>
-    <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>VRE_Colossal.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.label</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef</t>
-  </si>
-  <si>
-    <t>UnnaturalDarkness.stages.2.label</t>
-  </si>
-  <si>
-    <t>[LC] Consolidated Traits &amp;&amp; Anomaly</t>
-  </si>
-  <si>
-    <t>unnatural darkness</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.description</t>
-  </si>
-  <si>
-    <t>UnnaturalDarkness.stages.2.description</t>
-  </si>
-  <si>
-    <t>It's unusually dark!</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+ZygolophodonTusk.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef</t>
-  </si>
-  <si>
-    <t>ZygolophodonTusk.description</t>
-  </si>
-  <si>
-    <t>Megafauna &amp;&amp; Big and Small - Genes &amp; More &amp;&amp;  ~~ Combat Extended</t>
-  </si>
-  <si>
-    <t>A zygolophodon's enormous tusk. Extremely durable and valuable. Too large to be wielded by a regular human.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+ZygolophodonTusk.tools.0.label</t>
-  </si>
-  <si>
-    <t>ZygolophodonTusk.tools.0.label</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+ZygolophodonTusk.tools.1.label</t>
-  </si>
-  <si>
-    <t>ZygolophodonTusk.tools.1.label</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>Patches.ResearchProjectDef+Gunlink.label</t>
-  </si>
-  <si>
-    <t>Patches.ResearchProjectDef</t>
-  </si>
-  <si>
-    <t>Gunlink.label</t>
-  </si>
-  <si>
-    <t>Rimsenal - Spacer Faction Pack &amp;&amp; Royalty</t>
-  </si>
-  <si>
-    <t>target acquisition</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_GreaterToughspikes.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>AG_GreaterToughspikes.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Vanilla Anomaly Expanded - Insanity &amp;&amp; Alpha Genes</t>
-  </si>
-  <si>
-    <t>-0.4% sanity per day</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_GreaterFleshWhip.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>AG_GreaterFleshWhip.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_FleshSpitter.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>AG_FleshSpitter.customEffectDescriptions.0</t>
-  </si>
-  <si>
-    <t>Patches.VAspirE.AspirationDef+VAspirE_Winged.description</t>
-  </si>
-  <si>
-    <t>Patches.VAspirE.AspirationDef</t>
-  </si>
-  <si>
-    <t>VAspirE_Winged.description</t>
-  </si>
-  <si>
-    <t>Vanilla Aspirations Expanded &amp;&amp; Alpha Genes</t>
-  </si>
-  <si>
-    <t>{0} wants to get wings capable of flight.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+GR_AlphaGenomeExcavator.label</t>
-  </si>
-  <si>
-    <t>GR_AlphaGenomeExcavator.label</t>
-  </si>
-  <si>
-    <t>Vanilla Genetics Expanded &amp;&amp; Alpha Animals</t>
-  </si>
-  <si>
-    <t>Patches.RecipeDef+GR_CraftAlphaGenomeExcavator.label</t>
-  </si>
-  <si>
-    <t>Patches.RecipeDef</t>
-  </si>
-  <si>
-    <t>GR_CraftAlphaGenomeExcavator.label</t>
-  </si>
-  <si>
-    <t>craft advanced genome excavator</t>
-  </si>
-  <si>
-    <t>Patches.ResearchProjectDef+VVE_Louie.label</t>
-  </si>
-  <si>
-    <t>VVE_Louie.label</t>
-  </si>
-  <si>
-    <t>Vanilla Vehicles Expanded - Tier 3 &amp;&amp; [LYN] VVE Renamed</t>
-  </si>
-  <si>
-    <t>military helicopter</t>
-  </si>
-  <si>
-    <t>Patches.ResearchProjectDef+VVE_Cherokee.label</t>
-  </si>
-  <si>
-    <t>VVE_Cherokee.label</t>
-  </si>
-  <si>
-    <t>cargo helicopter</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+VRE_FastShooter.description</t>
-  </si>
-  <si>
-    <t>VRE_FastShooter.description</t>
-  </si>
-  <si>
-    <t>Vanilla Races Expanded - Archon</t>
-  </si>
-  <si>
-    <t>Carriers of this gene are good at dealing with recoils, allowing them to fire their ranged weapons significantly faster.</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+VRE_SlowShooter.description</t>
-  </si>
-  <si>
-    <t>VRE_SlowShooter.description</t>
-  </si>
-  <si>
-    <t>Carriers of this gene are poor at dealing with recoils and take significantly longer to fire their ranged weapons.</t>
-  </si>
-  <si>
-    <t>Patches.GeneDef+AG_HivelingVoice.label</t>
-  </si>
-  <si>
-    <t>AG_HivelingVoice.label</t>
-  </si>
-  <si>
-    <t>Vanilla Races Expanded - Insector &amp;&amp; Alpha Genes</t>
-  </si>
-  <si>
-    <t>insect voice</t>
-  </si>
-  <si>
-    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.label</t>
-  </si>
-  <si>
-    <t>Patches.HediffDef</t>
-  </si>
-  <si>
-    <t>TMM_AG_IncreasedCommandRange.label</t>
-  </si>
-  <si>
-    <t>increased command range</t>
-  </si>
-  <si>
-    <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.description</t>
-  </si>
-  <si>
-    <t>TMM_AG_IncreasedCommandRange.description</t>
-  </si>
-  <si>
-    <t>This person has an increased range when commanding drafted mechanoids.</t>
-  </si>
-  <si>
-    <t>Patches.CultureDef+TMM_Draconic.label</t>
-  </si>
-  <si>
-    <t>Patches.CultureDef</t>
-  </si>
-  <si>
-    <t>Patches.CultureDef+TMM_Draconic.description</t>
-  </si>
-  <si>
-    <t>Patches.CultureDef+TMM_Dwarven.label</t>
-  </si>
-  <si>
-    <t>Patches.CultureDef+TMM_Dwarven.description</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.label</t>
-  </si>
-  <si>
-    <t>TMM_ActiveVoicelock_Masochist.stages.0.label</t>
-  </si>
-  <si>
-    <t>Integrated Implants</t>
-  </si>
-  <si>
-    <t>masochist voicelocked</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.description</t>
-  </si>
-  <si>
-    <t>TMM_ActiveVoicelock_Masochist.stages.0.description</t>
-  </si>
-  <si>
-    <t>I am being silenced by an implant. It feels so good!</t>
-  </si>
-  <si>
-    <t>이 유전자의 보유자는 메카나이터가 될 경우 더 먼 거리에서 메카노이드를 조종할 수 있습니다.</t>
+    <t>hussar cataphract</t>
+  </si>
+  <si>
+    <t>Keyed+VPER_PsychicChargeIndicator</t>
+  </si>
+  <si>
+    <t>VPER_PsychicChargeIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychic charge: </t>
+  </si>
+  <si>
+    <t>Keyed+VPER_MustTargetRuneCircle</t>
+  </si>
+  <si>
+    <t>VPER_MustTargetRuneCircle</t>
+  </si>
+  <si>
+    <t>Must target a runecircle.</t>
+  </si>
+  <si>
+    <t>Keyed+VPER_RuneCircleNotCharged</t>
+  </si>
+  <si>
+    <t>VPER_RuneCircleNotCharged</t>
+  </si>
+  <si>
+    <t>This runecircle is not charged.</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_CondimentEffectsMayo</t>
+  </si>
+  <si>
+    <t>VCE_CondimentEffectsMayo</t>
+  </si>
+  <si>
+    <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 1 for 12 hours.</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_CondimentEffectsInfusedMayo</t>
+  </si>
+  <si>
+    <t>VCE_CondimentEffectsInfusedMayo</t>
+  </si>
+  <si>
+    <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 3 for 12 hours.</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_CondimentEffectsBlackMayo</t>
+  </si>
+  <si>
+    <t>VCE_CondimentEffectsBlackMayo</t>
+  </si>
+  <si>
+    <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 4 for 12 hours.</t>
+  </si>
+  <si>
+    <t>Keyed+CultureLetterTitleDesc</t>
+  </si>
+  <si>
+    <t>CultureLetterTitleDesc</t>
+  </si>
+  <si>
+    <t>Your short-range radio has picked up signals of several screaming senators of {0}.
+They shout over each other, until one voice speaks clear amongst them. They have spotted your signal and ask for your help in exchange for useful information on useful neolithic technologies. By completing basic quests for these senators, they will give you unique colony-wide perks, research, and join your colony. 
+If you keep these senators alive and gain the favor of all of them, you can win an additional major perk specific to that republic. If you do this process with all three republics, they could unite into a single empire that will grant you the ability to recruit any member of its faction with a click of a button.
+Colonists interested in discussing with these senators must travel physically to discuss with them.
+Begin gaining the favor of the senators by visiting Republic settlements.
+- Research culture
+- Form a caravan
+- Visit a Republic settlement
+- Right-click the settlement, open senators screen</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+SecurityDoor.label</t>
+  </si>
+  <si>
+    <t>SecurityDoor.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Vanilla Furniture Expanded - Architect || ReBuild: Doors and Corners ))  &amp;&amp; Anomaly</t>
+  </si>
+  <si>
+    <t>reinforced structures</t>
+  </si>
+  <si>
+    <t>Patches.ResearchProjectDef+SecurityDoor.description</t>
+  </si>
+  <si>
+    <t>SecurityDoor.description</t>
+  </si>
+  <si>
+    <t>Build heavily reinforced structures. It's a good choice if you want to keep something dangerous out - or in.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+GR_NutrientVat.description</t>
+  </si>
+  <si>
+    <t>GR_NutrientVat.description</t>
+  </si>
+  <si>
+    <t>Vanilla Genetics Expanded &amp;&amp; WVC - Xenotypes and Genes</t>
+  </si>
+  <si>
+    <t>A slurry of liquefied organic pulp fills this reinforced glass vat. This solution is used by genetic experiments, and increases work speed when placed near a workbench related to genetics. One workbench can use to up to two nutrient vats.</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ConsumedInfusedMayo.stages.0.label</t>
+  </si>
+  <si>
+    <t>TMM_ConsumedInfusedMayo.stages.0.label</t>
+  </si>
+  <si>
+    <t>Alpha Crafts &amp;&amp; Vanilla Cooking Expanded</t>
+  </si>
+  <si>
+    <t>consumed infused mayo</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ConsumedInfusedMayo.stages.0.description</t>
+  </si>
+  <si>
+    <t>TMM_ConsumedInfusedMayo.stages.0.description</t>
+  </si>
+  <si>
+    <t>I ate delicious infused mayo. So filling!</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ConsumedBlackMayo.stages.0.label</t>
+  </si>
+  <si>
+    <t>TMM_ConsumedBlackMayo.stages.0.label</t>
+  </si>
+  <si>
+    <t>Alpha Crafts &amp;&amp; Vanilla Cooking Expanded &amp;&amp; Vanilla Plants Expanded - More Plants</t>
+  </si>
+  <si>
+    <t>consumed black mayo</t>
+  </si>
+  <si>
+    <t>Patches.ThoughtDef+TMM_ConsumedBlackMayo.stages.0.description</t>
+  </si>
+  <si>
+    <t>TMM_ConsumedBlackMayo.stages.0.description</t>
+  </si>
+  <si>
+    <t>I ate delicious black mayo. Quite filling!</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef+TMM_Make_MechanoidVanometricCore.label</t>
+  </si>
+  <si>
+    <t>TMM_Make_MechanoidVanometricCore.label</t>
+  </si>
+  <si>
+    <t>March of the Archocubes &amp;&amp; Reinforced Mechanoid 2 (Continued) &amp;&amp; Vanilla Factions Expanded - Mechanoids</t>
+  </si>
+  <si>
+    <t>make mechanoid vanometric core</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef+TMM_Make_MechanoidVanometricCore.description</t>
+  </si>
+  <si>
+    <t>TMM_Make_MechanoidVanometricCore.description</t>
+  </si>
+  <si>
+    <t>Make a mechanoid vanometric core.</t>
+  </si>
+  <si>
+    <t>Patches.RecipeDef+TMM_Make_MechanoidVanometricCore.jobString</t>
+  </si>
+  <si>
+    <t>TMM_Make_MechanoidVanometricCore.jobString</t>
+  </si>
+  <si>
+    <t>Making mechanoid vanometric core.</t>
+  </si>
+  <si>
+    <t>룬서클을 대상으로 지정해야 합니다.</t>
+  </si>
+  <si>
+    <t>이 룬서클은 충전되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 1만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 3만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 4만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>강화 구조물</t>
+  </si>
+  <si>
+    <t>액화된 유기물 펄프 슬러리가 이 강화 유리 통을 채우고 있습니다. 이 용액은 유전학 실험에 사용되며, 유전학 관련 작업대 근처에 배치하면 작업 속도를 높입니다. 작업대 하나당 최대 두 개의 영양액 통을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>주입된 마요네즈 섭취</t>
+  </si>
+  <si>
+    <t>검은 마요네즈 섭취</t>
+  </si>
+  <si>
+    <t>단거리 무전기가 {0}의 여러 원로원 의원들이 비명을 지르는 신호를 포착했습니다.\n\n그들은 서로 소리치다가, 한 명의 목소리가 그들 사이에서 명확하게 들립니다. 그들은 당신의 신호를 발견했고 유용한 신석기 기술에 대한 정보와 교환하여 당신의 도움을 요청합니다. 이 원로원 의원들을 위한 기본 퀘스트를 완료하면, 그들은 당신에게 독특한 정착지 전체 특전, 연구를 제공하고 당신의 정착지에 합류할 것입니다. \n\n이 원로원 의원들을 살려두고 그들 모두의 호의를 얻으면, 해당 공화국 특유의 추가적인 주요 특전을 얻을 수 있습니다. 세 공화국 모두와 이 과정을 거치면, 그들은 하나의 제국으로 통합되어 버튼 클릭 한 번으로 해당 세력의 구성원을 모집할 수 있는 능력을 부여할 것입니다.\n\n이 원로원 의원들과 대화하는 데 관심 있는 정착민들은 직접 이동하여 그들과 대화해야 합니다.\n공화국 정착지를 방문하여 원로원 의원들의 호의를 얻기 시작하십시오.\n- 문화 연구\n- 상단 구성\n- 공화국 정착지 방문\n- 정착지를 마우스 오른쪽 버튼으로 클릭하고 원로원 화면 열기</t>
+  </si>
+  <si>
+    <t>메카노이드 바노메트릭 코어를 만듭니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정신적 유대감 (휴식)</t>
+    <t>메카노이드 바노메트릭 코어 만들기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정신적으로 유대감을 가진 두 사람 모두 휴식 속도가 증가합니다.</t>
+    <t>메카노이드 바노메트릭 코어 만드는 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>악마 되기</t>
+    <t>맛있는 주입된 마요네즈를 먹었어. 정말 든든해!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>불멸의 고양이와 유대감 형성하기</t>
+    <t>맛있는 검은 마요네즈를 먹었어. 꽤 든든해!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이 유전자의 보유자는 거대한 체구로 성장하는 대신, 이동 속도와 근접 공격 회피율이 낮아집니다.</t>
+    <t>매우 튼튼한 구조물을 건설합니다. 위험한 것을 막거나 가두고 싶을 때 좋은 선택입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이 유전자의 보유자는 동종에 비해 훨씬 작은 체구를 가지게 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부자연적 어둠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엄청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어두워!</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼끝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지골로포돈의 거대한 엄니입니다. 매우 단단하고 귀한 물건이지만, 일반적인 인간이 사용하기에는 너무 큽니다.</t>
-  </si>
-  <si>
-    <t>봉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 획득</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.4% 정신력 감소/일</t>
-  </si>
-  <si>
-    <t>{0}(은)는 비행을 위한 날개를 원합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>advanced genome excavator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 유전물질 추출기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 유전물질 추출기 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>군용 헬리콥터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화물 헬리콥터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 유전자의 보유자는 반동 제어 능력이 부족해 원거리 무기를 훨씬 느리게 발사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 유전자의 보유자는 반동 제어 능력이 뛰어나 원거리 무기를 훨씬 빠르게 발사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곤충 목소리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 명령 범위 +15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명령 범위 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 사람은 소집된 메카노이드를 더 멀리서도 조종할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤주의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신화 속 이종형들이 이끄는 드래곤들의 문화입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드워프주의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키 작은 이들로부터 이어진 드워프들의 문화입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 입이 강제로 틀어막혔어. 엄청 기분이 좋아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음성 소거장치가 활성화됨 (피학적)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(은)는 {IDEO_name}(을)를 믿고 있으므로 인육을 먹지 못한 날이 {DURATION}일을 초과하면 기분이 나빠집니다.</t>
-  </si>
-  <si>
-    <t>마지막으로 섭취한 인육</t>
-  </si>
-  <si>
-    <t>배헤모스 도축하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 베헤모스를 도축하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 쉽게 죽지 않는 고양이와 유대감을 형성하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 악마가 되고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미식가 혀로 음식을 먹기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 미식가 혀로 음식의 맛을 음미하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 폭탄 되기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 몸에 반물질탄 기폭장치를 설치하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음성 소거장치 설치하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 자신의 성대를 잠그고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈알 숲 방문하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 외계의 풍경을 감상하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비 유도 유전자 얻기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 비를 뿌리고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 사격에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채굴 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조리 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원예 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조련 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의학 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사교 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구 책 쓰기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 격투에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 건설에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 채굴에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 조리에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 원예에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 조련에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 의학에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 사교에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 연구에 관한 책을 저술하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완벽한 몸 얻기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 완벽한 몸을 가지고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커지기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 몸이 커지고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>군칸마키 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 맛있는 군칸마키를 만들고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매혹적인 목소리 듣기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Listen to an alluring voice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 매혹적인 목소리를 듣고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공룡과 유대감 형성하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 공룡과 유대감을 형성하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차가운 유전자 얻기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 차가운 유전자를 얻고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨거운 유전자 얻기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 뜨거운 유전자를 얻고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은총의 손길 받기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 은총의 손길을 받고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>후광 얻기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 천사처럼 빛나는 후광을 얻고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골렘 주인 되기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 골렘을 조종하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아포토시스 배양하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 가장 강력한 메카노이드를 배양하고 싶어합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미식적인 직화구이 조리하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}(은)는 미식적인 직화구이를 만들고 싶어합니다.</t>
+    <t>정신력 충전:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1862,12 +2836,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1887,6 +2860,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -1917,13 +2895,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2226,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2291,8 +3270,8 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -2470,250 +3449,250 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>378</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>379</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>415</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>425</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>412</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2721,1601 +3700,1601 @@
         <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>413</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>417</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>418</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>419</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>421</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>422</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>423</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>453</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>452</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>454</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>455</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>456</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>461</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>462</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>463</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>464</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>465</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>466</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>467</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>468</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>469</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>470</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>450</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>451</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>448</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>449</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>457</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>458</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>459</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>460</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>426</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>427</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>428</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>429</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>438</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>430</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>439</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>431</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>440</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>432</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>441</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>433</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>434</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>443</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>435</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>436</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>445</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>386</v>
+        <v>366</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F91" t="s">
-        <v>388</v>
+        <v>372</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F95" t="s">
         <v>391</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F96" t="s">
         <v>391</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F97" t="s">
         <v>391</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>348</v>
+        <v>423</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>357</v>
+        <v>434</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>55</v>
@@ -4327,107 +5306,426 @@
         <v>57</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>371</v>
+        <v>455</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>408</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4598,48 +5896,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
+++ b/Data/Too Many Mods - Compats and Rebalances - 3250762483/3250762483_240922.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Too Many Mods - Compats and Rebalances - 3250762483\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D573D-BC7C-4F0E-A18A-4B3A5B8D6DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC448D-CCE1-4F9D-B1BB-FE9430A47947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,267 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="E83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '메카노이드 명령 범위 +15'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '이 유전자의 보유자는 메카나이터가 될 경우 더 먼 거리에서 메카노이드를 조종할 수 있습니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '이 유전자의 보유자는 거대한 체구로 성장하는 대신, 이동 속도와 근접 공격 회피율이 낮아집니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '이 유전자의 보유자는 동종에 비해 훨씬 작은 체구를 가지게 됩니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '지골로포돈의 거대한 엄니입니다. 매우 단단하고 귀한 물건이지만, 일반적인 인간이 사용하기에는 너무 큽니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '칼끝'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '봉'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '-0.4% 정신력 감소/일'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '-0.4% 정신력 감소/일'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '-0.4% 정신력 감소/일'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '{0}(은)는 비행을 위한 날개를 원합니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '고급 유전물질 추출기'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '고급 유전물질 추출기 만들기'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '군용 헬리콥터'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '화물 헬리콥터'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '이 유전자의 보유자는 반동 제어 능력이 뛰어나 원거리 무기를 훨씬 빠르게 발사합니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '이 유전자의 보유자는 반동 제어 능력이 부족해 원거리 무기를 훨씬 느리게 발사합니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '곤충 목소리'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F114" authorId="0" shapeId="0" xr:uid="{8C407957-E247-4407-9B07-4A108F2BF6AC}">
+    <comment ref="F114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -156,12 +416,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="E123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 삭제됨. 삭제 이전 번역문: '액화된 유기물 펄프 슬러리가 이 강화 유리 통을 채우고 있습니다. 이 용액은 유전학 실험에 사용되며, 유전학 관련 작업대 근처에 배치하면 작업 속도를 높입니다. 작업대 하나당 최대 두 개의 영양액 통을 사용할 수 있습니다.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 새로 추가된 노드들 (50개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F131" authorId="0" shapeId="0" xr:uid="{BF52C9F4-438E-44FD-B354-BA6A864D8495}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-08-27에 새로 추가된 노드들 (50개)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="727">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -214,7 +513,7 @@
     <t>Empire_Fighter_Cataphract_Hussar.label</t>
   </si>
   <si>
-    <t>cataphract</t>
+    <t>hussar cataphract</t>
   </si>
   <si>
     <r>
@@ -493,42 +792,42 @@
     <t>Psychic bond (Rest)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신적 유대감 (휴식)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>HediffDef+TMM_PsychicBondRest.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>정신적 유대감 (휴식)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_PsychicBondRest.description</t>
   </si>
   <si>
     <t>Both psychically-bonded individuals benefit from increased rest rate.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신적으로 유대감을 가진 두 사람 모두 휴식 속도가 증가합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeDemon.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>정신적으로 유대감을 가진 두 사람 모두 휴식 속도가 증가합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VAspirE.AspirationDef</t>
   </si>
   <si>
@@ -541,1269 +840,1269 @@
     <t>become a demon</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>악마 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeDemon.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>악마 되기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeDemon.description</t>
   </si>
   <si>
     <t>{0} wants to become a demon.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 악마가 되고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 악마가 되고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BeBondedToPhoenixOwlcat.label</t>
   </si>
   <si>
     <t>be bonded to an immortal cat</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>불멸의 고양이와 유대감 형성하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BeBondedToPhoenixOwlcat.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>불멸의 고양이와 유대감 형성하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BeBondedToPhoenixOwlcat.description</t>
   </si>
   <si>
     <t>{0} would like to bond with a cat who won't die easily.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 쉽게 죽지 않는 고양이와 유대감을 형성하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 쉽게 죽지 않는 고양이와 유대감을 형성하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeRainBringer.label</t>
   </si>
   <si>
     <t>become a rain bringer</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>비 유도 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeRainBringer.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>비 유도 유전자 얻기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeRainBringer.description</t>
   </si>
   <si>
     <t>{0} wants to become a rain bringer.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 비를 뿌리고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 비를 뿌리고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_ButcherBehemoth.label</t>
   </si>
   <si>
     <t>butcher behemoth</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>배헤모스 도축하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_ButcherBehemoth.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>배헤모스 도축하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_ButcherBehemoth.description</t>
   </si>
   <si>
     <t>{0} wants to butcher a behemoth.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 베헤모스를 도축하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 베헤모스를 도축하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_EatWithGourmandTongue.label</t>
   </si>
   <si>
     <t>eat meal with gourmand tongue</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미식가 혀로 음식을 먹기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_EatWithGourmandTongue.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>미식가 혀로 음식을 먹기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_EatWithGourmandTongue.description</t>
   </si>
   <si>
     <t>{0} wants to savor the taste of food with gourmand tongue.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 미식가 혀로 음식의 맛을 음미하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 미식가 혀로 음식의 맛을 음미하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeUltimateHumanBomb.label</t>
   </si>
   <si>
     <t>become an ultimate human bomb</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>인간 폭탄 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeUltimateHumanBomb.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>인간 폭탄 되기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeUltimateHumanBomb.description</t>
   </si>
   <si>
     <t>{0} would love to have an antigrain warhead implanted.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 몸에 반물질탄 기폭장치를 설치하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetVoicelocked.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 몸에 반물질탄 기폭장치를 설치하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetVoicelocked.label</t>
   </si>
   <si>
     <t>get voicelocked</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>음성 소거장치 설치하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetVoicelocked.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>음성 소거장치 설치하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetVoicelocked.description</t>
   </si>
   <si>
     <t>{0} wants to be voicelocked.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 자신의 성대를 잠그고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_VisitOcularForest.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 자신의 성대를 잠그고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_VisitOcularForest.label</t>
   </si>
   <si>
     <t>visit ocular forest</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>눈알 숲 방문하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_VisitOcularForest.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>눈알 숲 방문하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_VisitOcularForest.description</t>
   </si>
   <si>
     <t>{0} wants to take in completely alien scenery.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 외계의 풍경을 감상하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 외계의 풍경을 감상하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_HearAlluringVoice.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listen to an alluring voice</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>매혹적인 목소리 듣기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_HearAlluringVoice.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>Listen to an alluring voice</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>매혹적인 목소리 듣기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_HearAlluringVoice.description</t>
   </si>
   <si>
     <t>{0} wants to feel at ease hearing an alluring voice.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 매혹적인 목소리를 듣고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 매혹적인 목소리를 듣고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BeBondedToFDinosaur.label</t>
   </si>
   <si>
     <t>be bonded to a dinosaur</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공룡과 유대감 형성하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BeBondedToFDinosaur.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>공룡과 유대감 형성하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BeBondedToFDinosaur.description</t>
   </si>
   <si>
     <t>{0} would like to bond with a dinosaur.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 공룡과 유대감을 형성하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_TouchedByGrace.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 공룡과 유대감을 형성하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_TouchedByGrace.label</t>
   </si>
   <si>
     <t>touched by grace</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>은총의 손길 받기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_TouchedByGrace.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>은총의 손길 받기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_TouchedByGrace.description</t>
   </si>
   <si>
     <t>{0} wants to be touched by grace.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 은총의 손길을 받고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetHalo.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 은총의 손길을 받고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetHalo.label</t>
   </si>
   <si>
     <t>get a halo</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>후광 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetHalo.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>후광 얻기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetHalo.description</t>
   </si>
   <si>
     <t>{0} wants a halo shining like an angel's.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 천사처럼 빛나는 후광을 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GolemMaster.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 천사처럼 빛나는 후광을 얻고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GolemMaster.label</t>
   </si>
   <si>
     <t>become a golem master</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>골렘 주인 되기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GolemMaster.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>골렘 주인 되기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GolemMaster.description</t>
   </si>
   <si>
     <t>{0} wants to controll golems.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 골렘을 조종하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GestateApoptosis.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 골렘을 조종하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GestateApoptosis.label</t>
   </si>
   <si>
     <t>gestate apoptosis</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아포토시스 배양하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GestateApoptosis.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>아포토시스 배양하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GestateApoptosis.description</t>
   </si>
   <si>
     <t>{0} wants to gestate the strongest mechanoid on the planet.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 가장 강력한 메카노이드를 배양하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 가장 강력한 메카노이드를 배양하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_CookGourmetGrill.label</t>
   </si>
   <si>
     <t>cook gourmet grill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>미식적인 직화구이 조리하기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_CookGourmetGrill.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>미식적인 직화구이 조리하기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_CookGourmetGrill.description</t>
   </si>
   <si>
     <t>{0} wants to cook delicious gourmet grill.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 미식적인 직화구이를 만들고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 미식적인 직화구이를 만들고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_MakeGunkanmaki.label</t>
   </si>
   <si>
     <t>make gunkanmaki</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>군칸마키 만들기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_MakeGunkanmaki.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>군칸마키 만들기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_MakeGunkanmaki.description</t>
   </si>
   <si>
     <t>{0} wants to make tasty gunkanmaki.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 맛있는 군칸마키를 만들고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeBig.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 맛있는 군칸마키를 만들고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeBig.label</t>
   </si>
   <si>
     <t>become big</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커지기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeBig.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커지기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeBig.description</t>
   </si>
   <si>
     <t>{0} wants to become a big person.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 몸이 커지고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 몸이 커지고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeCryoBlooded.label</t>
   </si>
   <si>
     <t>get a cool gene</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>차가운 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_BecomeCryoBlooded.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>차가운 유전자 얻기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_BecomeCryoBlooded.description</t>
   </si>
   <si>
     <t>{0} would like to have a cool gene.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 차가운 유전자를 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetHotGene.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 차가운 유전자를 얻고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetHotGene.label</t>
   </si>
   <si>
     <t>get a hot gene</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뜨거운 유전자 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetHotGene.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>뜨거운 유전자 얻기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetHotGene.description</t>
   </si>
   <si>
     <t>{0} would like to have a hot gene.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 뜨거운 유전자를 얻고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteShootingBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 뜨거운 유전자를 얻고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteShootingBook.label</t>
   </si>
   <si>
     <t>write a shooting book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사격 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteShootingBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사격 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteShootingBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about shooting.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 사격에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 사격에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMeleeBook.label</t>
   </si>
   <si>
     <t>write a melee book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>격투 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMeleeBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>격투 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMeleeBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about melee fights.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 격투에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 격투에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteConstructionBook.label</t>
   </si>
   <si>
     <t>write a construction book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteConstructionBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>건설 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteConstructionBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about construction.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 건설에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMiningBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 건설에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMiningBook.label</t>
   </si>
   <si>
     <t>write a mining book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>채굴 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMiningBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>채굴 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMiningBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about mining.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 채굴에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteCookingBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 채굴에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteCookingBook.label</t>
   </si>
   <si>
     <t>write a cooking book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조리 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteCookingBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>조리 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteCookingBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about cooking.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 조리에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 조리에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteGrowingBook.label</t>
   </si>
   <si>
     <t>write a growing book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>원예 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteGrowingBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>원예 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteGrowingBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about growing plants.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 원예에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 원예에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteAnimalsBook.label</t>
   </si>
   <si>
     <t>write an animals book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>조련 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteAnimalsBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>조련 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteAnimalsBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about animals.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 조련에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 조련에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMedicalBook.label</t>
   </si>
   <si>
     <t>write a medical book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>의학 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteMedicalBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>의학 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteMedicalBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a medical book.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 의학에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteSocialBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 의학에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteSocialBook.label</t>
   </si>
   <si>
     <t>write a social book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사교 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteSocialBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사교 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteSocialBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a book about negotiations.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 사교에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 사교에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteIntellectualBook.label</t>
   </si>
   <si>
     <t>write an intellectual book</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>연구 책 쓰기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_WriteIntellectualBook.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>연구 책 쓰기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_WriteIntellectualBook.description</t>
   </si>
   <si>
     <t>{0} wants to write a thick academic book.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 연구에 관한 책을 저술하고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetPerfectBody.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 연구에 관한 책을 저술하고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetPerfectBody.label</t>
   </si>
   <si>
     <t>get a perfect body</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>완벽한 몸 얻기</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VAspirE.AspirationDef+TMM_GetPerfectBody.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>완벽한 몸 얻기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_GetPerfectBody.description</t>
   </si>
   <si>
     <t>{0} desires a perfect body.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 완벽한 몸을 가지고 싶어합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+LastHumanMeat</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 완벽한 몸을 가지고 싶어합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>LastHumanMeat</t>
   </si>
   <si>
@@ -1840,42 +2139,24 @@
     <t>Mech command range +15</t>
   </si>
   <si>
+    <t>TMM_RandomTribalRare.label</t>
+  </si>
+  <si>
     <t>Patches.GeneDef+AG_IncreasedCommandRange.customEffectDescriptions.1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>메카노이드 명령 범위 +15</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>AG_IncreasedCommandRange.customEffectDescriptions.1</t>
   </si>
   <si>
     <t>This gene is only active if the carrier is a mechanitor.</t>
   </si>
   <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
     <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 유전자의 보유자는 메카나이터가 될 경우 더 먼 거리에서 메카노이드를 조종할 수 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef</t>
   </si>
   <si>
@@ -1888,72 +2169,46 @@
     <t>Carriers of this gene grow to colossal proportions, while reducing movement speed and melee dodge chance.</t>
   </si>
   <si>
+    <t>ThingDef+TMM_RandomTribalRare.label</t>
+  </si>
+  <si>
     <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 유전자의 보유자는 거대한 체구로 성장하는 대신, 이동 속도와 근접 공격 회피율이 낮아집니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VRE_Microsized.description</t>
   </si>
   <si>
     <t>Carriers of this gene exhibit a microsized stature, significantly smaller than their counterparts.</t>
   </si>
   <si>
+    <t>[PAWN_nameDef] was an elected senator in the Republic.
+      \n[PAWN_pronoun] spent years discussing policies, attending hearings, and navigating the complex web of political factions to advance the Republic’s ideals.</t>
+  </si>
+  <si>
     <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Microsized.customEffectDescriptions.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 유전자의 보유자는 동종에 비해 훨씬 작은 체구를 가지게 됩니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VRE_Microsized.customEffectDescriptions.0</t>
   </si>
   <si>
     <t>Body size affects HP, melee damage, raid presence, diet, mining speed, carrying capacities, ranged dodge chance and self-production genes.</t>
   </si>
   <si>
+    <t>TMM_VFEC_Senator.description</t>
+  </si>
+  <si>
     <t>Patches.VanillaRacesExpandedInsector.GenelineGeneDef+VRE_Colossal.customEffectDescriptions.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>신체 크기는 체력, 근접 공격력, 습격 계수, 식사량, 채광 속도, 소지 무게, 원거리 회피율, 그리고 자체 생산물을 가진 유전자에 영향을 줍니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VRE_Colossal.customEffectDescriptions.0</t>
   </si>
   <si>
+    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.label</t>
+  </si>
+  <si>
     <t>Patches.ThoughtDef</t>
   </si>
   <si>
-    <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.label</t>
-  </si>
-  <si>
     <t>UnnaturalDarkness.stages.2.label</t>
   </si>
   <si>
@@ -1963,21 +2218,21 @@
     <t>unnatural darkness</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>부자연적 어둠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+UnnaturalDarkness.stages.2.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>부자연적 어둠</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>UnnaturalDarkness.stages.2.description</t>
   </si>
   <si>
@@ -2029,7 +2284,7 @@
     <t>A zygolophodon's enormous tusk. Extremely durable and valuable. Too large to be wielded by a regular human.</t>
   </si>
   <si>
-    <t>지골로포돈의 거대한 엄니입니다. 매우 단단하고 귀한 물건이지만, 일반적인 인간이 사용하기에는 너무 큽니다.</t>
+    <t>BackstoryDef+TMM_VFEC_Senator.description</t>
   </si>
   <si>
     <t>Patches.ThingDef+ZygolophodonTusk.tools.0.label</t>
@@ -2041,42 +2296,24 @@
     <t>point</t>
   </si>
   <si>
+    <t>TMM_VFEC_Senator.titleShort</t>
+  </si>
+  <si>
     <t>Patches.ThingDef+ZygolophodonTusk.tools.1.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>칼끝</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ZygolophodonTusk.tools.1.label</t>
   </si>
   <si>
     <t>base</t>
   </si>
   <si>
+    <t>BackstoryDef+TMM_VFEC_Senator.titleShort</t>
+  </si>
+  <si>
     <t>Patches.ResearchProjectDef+Gunlink.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>봉</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.ResearchProjectDef</t>
   </si>
   <si>
@@ -2089,21 +2326,21 @@
     <t>target acquisition</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목표 획득</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.GeneDef+AG_GreaterToughspikes.customEffectDescriptions.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>목표 획득</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>AG_GreaterToughspikes.customEffectDescriptions.0</t>
   </si>
   <si>
@@ -2113,7 +2350,7 @@
     <t>-0.4% sanity per day</t>
   </si>
   <si>
-    <t>-0.4% 정신력 감소/일</t>
+    <t>senator</t>
   </si>
   <si>
     <t>Patches.GeneDef+AG_GreaterFleshWhip.customEffectDescriptions.0</t>
@@ -2143,54 +2380,36 @@
     <t>{0} wants to get wings capable of flight.</t>
   </si>
   <si>
+    <t>##packageId##OskarPotocki.VFE.Classical</t>
+  </si>
+  <si>
     <t>Patches.ThingDef+GR_AlphaGenomeExcavator.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{0}(은)는 비행을 위한 날개를 원합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>GR_AlphaGenomeExcavator.label</t>
   </si>
   <si>
     <t>Vanilla Genetics Expanded &amp;&amp; Alpha Animals</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>advanced genome excavator</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMM_VFEC_Senator.title</t>
+  </si>
+  <si>
     <t>Patches.RecipeDef+GR_CraftAlphaGenomeExcavator.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>advanced genome excavator</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>고급 유전물질 추출기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.RecipeDef</t>
   </si>
   <si>
@@ -2200,21 +2419,12 @@
     <t>craft advanced genome excavator</t>
   </si>
   <si>
+    <t>BackstoryDef</t>
+  </si>
+  <si>
     <t>Patches.ResearchProjectDef+VVE_Louie.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>고급 유전물질 추출기 만들기</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VVE_Louie.label</t>
   </si>
   <si>
@@ -2224,42 +2434,24 @@
     <t>military helicopter</t>
   </si>
   <si>
+    <t>BackstoryDef+TMM_VFEC_Senator.title</t>
+  </si>
+  <si>
     <t>Patches.ResearchProjectDef+VVE_Cherokee.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>군용 헬리콥터</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VVE_Cherokee.label</t>
   </si>
   <si>
     <t>cargo helicopter</t>
   </si>
   <si>
+    <t>healing</t>
+  </si>
+  <si>
     <t>Patches.GeneDef+VRE_FastShooter.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>화물 헬리콥터</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VRE_FastShooter.description</t>
   </si>
   <si>
@@ -2272,39 +2464,18 @@
     <t>Patches.GeneDef+VRE_SlowShooter.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 유전자의 보유자는 반동 제어 능력이 뛰어나 원거리 무기를 훨씬 빠르게 발사합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>VRE_SlowShooter.description</t>
   </si>
   <si>
     <t>Carriers of this gene are poor at dealing with recoils and take significantly longer to fire their ranged weapons.</t>
   </si>
   <si>
+    <t>TMM_Healing.label</t>
+  </si>
+  <si>
     <t>Patches.GeneDef+AG_HivelingVoice.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 유전자의 보유자는 반동 제어 능력이 부족해 원거리 무기를 훨씬 느리게 발사합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>AG_HivelingVoice.label</t>
   </si>
   <si>
@@ -2314,21 +2485,12 @@
     <t>insect voice</t>
   </si>
   <si>
+    <t>GeneCategoryDef</t>
+  </si>
+  <si>
     <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>곤충 목소리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.HediffDef</t>
   </si>
   <si>
@@ -2338,45 +2500,57 @@
     <t>increased command range</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>명령 범위 증가</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.HediffDef+TMM_AG_IncreasedCommandRange.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>명령 범위 증가</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_AG_IncreasedCommandRange.description</t>
   </si>
   <si>
     <t>This person has an increased range when commanding drafted mechanoids.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 사람은 소집된 메카노이드를 더 멀리서도 조종할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.CultureDef+TMM_Draconic.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 사람은 소집된 메카노이드를 더 멀리서도 조종할 수 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Patches.CultureDef</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>드래곤주의</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.CultureDef+TMM_Draconic.description</t>
   </si>
   <si>
@@ -2387,7 +2561,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>드래곤주의</t>
+      <t>신화 속 이종형들이 이끄는 드래곤들의 문화입니다.</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2402,7 +2576,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>신화 속 이종형들이 이끄는 드래곤들의 문화입니다.</t>
+      <t>드워프주의</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2417,7 +2591,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>드워프주의</t>
+      <t>키 작은 이들로부터 이어진 드워프들의 문화입니다.</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2425,18 +2599,6 @@
     <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>키 작은 이들로부터 이어진 드워프들의 문화입니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_ActiveVoicelock_Masochist.stages.0.label</t>
   </si>
   <si>
@@ -2446,21 +2608,21 @@
     <t>masochist voicelocked</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>음성 소거장치가 활성화됨 (피학적)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+TMM_ActiveVoicelock_Masochist.stages.0.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>음성 소거장치가 활성화됨 (피학적)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>TMM_ActiveVoicelock_Masochist.stages.0.description</t>
   </si>
   <si>
@@ -2474,89 +2636,11 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>CultureDef+TMM_Dwarven.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
       <t>내 입이 강제로 틀어막혔어. 엄청 기분이 좋아!</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>CultureDef</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>TMM_Dwarven.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stoneborn - Dwarven Style Pack &amp;&amp; Det's Xenotypes - Stoneborn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>패치 ㄴㄴ</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>CultureDef+TMM_Dwarven.description</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>hussar cataphract</t>
-  </si>
-  <si>
     <t>Keyed+VPER_PsychicChargeIndicator</t>
   </si>
   <si>
@@ -2569,12 +2653,27 @@
     <t>Keyed+VPER_MustTargetRuneCircle</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정신력 충전:</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VPER_MustTargetRuneCircle</t>
   </si>
   <si>
     <t>Must target a runecircle.</t>
   </si>
   <si>
+    <t>룬서클을 대상으로 지정해야 합니다.</t>
+  </si>
+  <si>
     <t>Keyed+VPER_RuneCircleNotCharged</t>
   </si>
   <si>
@@ -2584,6 +2683,9 @@
     <t>This runecircle is not charged.</t>
   </si>
   <si>
+    <t>이 룬서클은 충전되지 않았습니다.</t>
+  </si>
+  <si>
     <t>Keyed+VCE_CondimentEffectsMayo</t>
   </si>
   <si>
@@ -2593,6 +2695,9 @@
     <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 1 for 12 hours.</t>
   </si>
   <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 1만큼 증가합니다.</t>
+  </si>
+  <si>
     <t>Keyed+VCE_CondimentEffectsInfusedMayo</t>
   </si>
   <si>
@@ -2602,6 +2707,9 @@
     <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 3 for 12 hours.</t>
   </si>
   <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 3만큼 증가합니다.</t>
+  </si>
+  <si>
     <t>Keyed+VCE_CondimentEffectsBlackMayo</t>
   </si>
   <si>
@@ -2609,6 +2717,9 @@
   </si>
   <si>
     <t>Mayonnaise, while terrible for you, adds a pleasing tang and is very calorically dense. Consuming meals that include this condiment lowers hunger rate by 15% and increases mood by 4 for 12 hours.</t>
+  </si>
+  <si>
+    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 4만큼 증가합니다.</t>
   </si>
   <si>
     <t>Keyed+CultureLetterTitleDesc</t>
@@ -2628,6 +2739,9 @@
 - Right-click the settlement, open senators screen</t>
   </si>
   <si>
+    <t>단거리 무전기가 {0}의 여러 원로원 의원들이 비명을 지르는 신호를 포착했습니다.\n\n그들은 서로 소리치다가, 한 명의 목소리가 그들 사이에서 명확하게 들립니다. 그들은 당신의 신호를 발견했고 유용한 신석기 기술에 대한 정보와 교환하여 당신의 도움을 요청합니다. 이 원로원 의원들을 위한 기본 퀘스트를 완료하면, 그들은 당신에게 독특한 정착지 전체 특전, 연구를 제공하고 당신의 정착지에 합류할 것입니다. \n\n이 원로원 의원들을 살려두고 그들 모두의 호의를 얻으면, 해당 공화국 특유의 추가적인 주요 특전을 얻을 수 있습니다. 세 공화국 모두와 이 과정을 거치면, 그들은 하나의 제국으로 통합되어 버튼 클릭 한 번으로 해당 세력의 구성원을 모집할 수 있는 능력을 부여할 것입니다.\n\n이 원로원 의원들과 대화하는 데 관심 있는 정착민들은 직접 이동하여 그들과 대화해야 합니다.\n공화국 정착지를 방문하여 원로원 의원들의 호의를 얻기 시작하십시오.\n- 문화 연구\n- 상단 구성\n- 공화국 정착지 방문\n- 정착지를 마우스 오른쪽 버튼으로 클릭하고 원로원 화면 열기</t>
+  </si>
+  <si>
     <t>Patches.ResearchProjectDef+SecurityDoor.label</t>
   </si>
   <si>
@@ -2640,6 +2754,9 @@
     <t>reinforced structures</t>
   </si>
   <si>
+    <t>강화 구조물</t>
+  </si>
+  <si>
     <t>Patches.ResearchProjectDef+SecurityDoor.description</t>
   </si>
   <si>
@@ -2652,6 +2769,18 @@
     <t>Patches.ThingDef+GR_NutrientVat.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>매우 튼튼한 구조물을 건설합니다. 위험한 것을 막거나 가두고 싶을 때 좋은 선택입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GR_NutrientVat.description</t>
   </si>
   <si>
@@ -2661,6 +2790,9 @@
     <t>A slurry of liquefied organic pulp fills this reinforced glass vat. This solution is used by genetic experiments, and increases work speed when placed near a workbench related to genetics. One workbench can use to up to two nutrient vats.</t>
   </si>
   <si>
+    <t>GeneCategoryDef+TMM_Healing.label</t>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+TMM_ConsumedInfusedMayo.stages.0.label</t>
   </si>
   <si>
@@ -2673,6 +2805,9 @@
     <t>consumed infused mayo</t>
   </si>
   <si>
+    <t>주입된 마요네즈 섭취</t>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+TMM_ConsumedInfusedMayo.stages.0.description</t>
   </si>
   <si>
@@ -2685,6 +2820,18 @@
     <t>Patches.ThoughtDef+TMM_ConsumedBlackMayo.stages.0.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>맛있는 주입된 마요네즈를 먹었어. 정말 든든해!</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TMM_ConsumedBlackMayo.stages.0.label</t>
   </si>
   <si>
@@ -2694,6 +2841,9 @@
     <t>consumed black mayo</t>
   </si>
   <si>
+    <t>검은 마요네즈 섭취</t>
+  </si>
+  <si>
     <t>Patches.ThoughtDef+TMM_ConsumedBlackMayo.stages.0.description</t>
   </si>
   <si>
@@ -2706,6 +2856,18 @@
     <t>Patches.RecipeDef+TMM_Make_MechanoidVanometricCore.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>맛있는 검은 마요네즈를 먹었어. 꽤 든든해!</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>TMM_Make_MechanoidVanometricCore.label</t>
   </si>
   <si>
@@ -2733,62 +2895,648 @@
     <t>Making mechanoid vanometric core.</t>
   </si>
   <si>
-    <t>룬서클을 대상으로 지정해야 합니다.</t>
-  </si>
-  <si>
-    <t>이 룬서클은 충전되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 1만큼 증가합니다.</t>
-  </si>
-  <si>
-    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 3만큼 증가합니다.</t>
-  </si>
-  <si>
-    <t>마요네즈는 몸에는 안 좋지만, 기분 좋은 톡 쏘는 맛을 더해주며 칼로리가 매우 높습니다. 이 조미료가 포함된 식사를 섭취하면 12시간 동안 허기 감소율이 15% 낮아지고 기분이 4만큼 증가합니다.</t>
-  </si>
-  <si>
-    <t>강화 구조물</t>
-  </si>
-  <si>
-    <t>액화된 유기물 펄프 슬러리가 이 강화 유리 통을 채우고 있습니다. 이 용액은 유전학 실험에 사용되며, 유전학 관련 작업대 근처에 배치하면 작업 속도를 높입니다. 작업대 하나당 최대 두 개의 영양액 통을 사용할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>주입된 마요네즈 섭취</t>
-  </si>
-  <si>
-    <t>검은 마요네즈 섭취</t>
-  </si>
-  <si>
-    <t>단거리 무전기가 {0}의 여러 원로원 의원들이 비명을 지르는 신호를 포착했습니다.\n\n그들은 서로 소리치다가, 한 명의 목소리가 그들 사이에서 명확하게 들립니다. 그들은 당신의 신호를 발견했고 유용한 신석기 기술에 대한 정보와 교환하여 당신의 도움을 요청합니다. 이 원로원 의원들을 위한 기본 퀘스트를 완료하면, 그들은 당신에게 독특한 정착지 전체 특전, 연구를 제공하고 당신의 정착지에 합류할 것입니다. \n\n이 원로원 의원들을 살려두고 그들 모두의 호의를 얻으면, 해당 공화국 특유의 추가적인 주요 특전을 얻을 수 있습니다. 세 공화국 모두와 이 과정을 거치면, 그들은 하나의 제국으로 통합되어 버튼 클릭 한 번으로 해당 세력의 구성원을 모집할 수 있는 능력을 부여할 것입니다.\n\n이 원로원 의원들과 대화하는 데 관심 있는 정착민들은 직접 이동하여 그들과 대화해야 합니다.\n공화국 정착지를 방문하여 원로원 의원들의 호의를 얻기 시작하십시오.\n- 문화 연구\n- 상단 구성\n- 공화국 정착지 방문\n- 정착지를 마우스 오른쪽 버튼으로 클릭하고 원로원 화면 열기</t>
-  </si>
-  <si>
-    <t>메카노이드 바노메트릭 코어를 만듭니다.</t>
+    <t>cataphract</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef+TMM_Dwarven.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>TMM_Dwarven.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoneborn - Dwarven Style Pack &amp;&amp; Det's Xenotypes - Stoneborn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>패치 ㄴㄴ</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>CultureDef+TMM_Dwarven.description</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>키 작은 이들로부터 이어진 드워프주의 체제입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla Base Generation Expanded</t>
+  </si>
+  <si>
+    <t>random tribal rare loot</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomTribalRare.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomTribalRare.description</t>
+  </si>
+  <si>
+    <t>Spawn random tribal loot.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomTribalCommon.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomTribalCommon.label</t>
+  </si>
+  <si>
+    <t>random tribal common loot</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomTribalCommon.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomTribalCommon.description</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomWildFood.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomWildFood.label</t>
+  </si>
+  <si>
+    <t>random raw plant</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomWildFood.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomWildFood.description</t>
+  </si>
+  <si>
+    <t>Spawn random wild food.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomTribalWeaponLegendary.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomTribalWeaponLegendary.label</t>
+  </si>
+  <si>
+    <t>random tribal legendary weapon</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomTribalWeaponLegendary.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomTribalWeaponLegendary.description</t>
+  </si>
+  <si>
+    <t>Spawn random tribal legendary weapon.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomBeverage.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomBeverage.label</t>
+  </si>
+  <si>
+    <t>random beverage</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomBeverage.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomBeverage.description</t>
+  </si>
+  <si>
+    <t>Spawn random beverage.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_JapaneseBeverage.label</t>
+  </si>
+  <si>
+    <t>TMM_JapaneseBeverage.label</t>
+  </si>
+  <si>
+    <t>random japanese beverage</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_JapaneseBeverage.description</t>
+  </si>
+  <si>
+    <t>TMM_JapaneseBeverage.description</t>
+  </si>
+  <si>
+    <t>Spawn random beverage for japanese factions.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSoftDrink.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomSoftDrink.label</t>
+  </si>
+  <si>
+    <t>random soft drink</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSoftDrink.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomSoftDrink.description</t>
+  </si>
+  <si>
+    <t>Spawn random soft drink.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomChillDrink.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomChillDrink.label</t>
+  </si>
+  <si>
+    <t>random chill drink</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomChillDrink.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomChillDrink.description</t>
+  </si>
+  <si>
+    <t>Spawn random chill drink.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomBreakfast.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomBreakfast.label</t>
+  </si>
+  <si>
+    <t>random breakfast</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomBreakfast.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomBreakfast.description</t>
+  </si>
+  <si>
+    <t>Spawn random breakfast.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomMealFridge.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomMealFridge.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomMealFridge</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomMealFridge.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomMealFridge.description</t>
+  </si>
+  <si>
+    <t>Spawn random meal for fridges etc.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSushi.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomSushi.label</t>
+  </si>
+  <si>
+    <t>random sushi</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSushi.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomSushi.description</t>
+  </si>
+  <si>
+    <t>Spawn random sushi.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSushiFish.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomSushiFish.label</t>
+  </si>
+  <si>
+    <t>random sushi fish</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomSushiFish.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomSushiFish.description</t>
+  </si>
+  <si>
+    <t>Spawn random sushi fish.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_SurrogateAndon.label</t>
+  </si>
+  <si>
+    <t>TMM_SurrogateAndon.label</t>
+  </si>
+  <si>
+    <t>surrogate andon</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_SurrogateAndon.description</t>
+  </si>
+  <si>
+    <t>TMM_SurrogateAndon.description</t>
+  </si>
+  <si>
+    <t>Spawn surrogate andon.</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomPotPlant.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomPotPlant.label</t>
+  </si>
+  <si>
+    <t>random pot plant</t>
+  </si>
+  <si>
+    <t>ThingDef+TMM_RandomPotPlant.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomPotPlant.description</t>
+  </si>
+  <si>
+    <t>Spawn random pot plant.</t>
+  </si>
+  <si>
+    <t>Keyed+AC.NeuralMatrixManagement</t>
+  </si>
+  <si>
+    <t>AC.NeuralMatrixManagement</t>
+  </si>
+  <si>
+    <t>Neural matrix management</t>
+  </si>
+  <si>
+    <t>Keyed+AC.ManageNeuralMatrix</t>
+  </si>
+  <si>
+    <t>AC.ManageNeuralMatrix</t>
+  </si>
+  <si>
+    <t>Manage neural matrix</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_Shooting.label</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef</t>
+  </si>
+  <si>
+    <t>TMM_Shooting.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Vanilla Races Expanded - Archon || Rimsenal Xenotype Pack - Askbarn )) </t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_Melee.label</t>
+  </si>
+  <si>
+    <t>TMM_Melee.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Big and Small - Genes &amp; More || Det's Xenotypes - Keshig || Vanilla Races Expanded - Archon )) </t>
+  </si>
+  <si>
+    <t>melee</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_Instability.label</t>
+  </si>
+  <si>
+    <t>TMM_Instability.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Big and Small - Genes &amp; More || Vanilla Races Expanded - Waster || WVC - Xenotypes and Genes )) </t>
+  </si>
+  <si>
+    <t>instability</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_GeneManipulation.label</t>
+  </si>
+  <si>
+    <t>TMM_GeneManipulation.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Alpha Genes || Big and Small - Genes &amp; More || WVC - Xenotypes and Genes )) </t>
+  </si>
+  <si>
+    <t>gene manipulation</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_AG_Shambler.label</t>
+  </si>
+  <si>
+    <t>TMM_AG_Shambler.label</t>
+  </si>
+  <si>
+    <t>Alpha Genes &amp;&amp; Anomaly</t>
+  </si>
+  <si>
+    <t>shambler</t>
+  </si>
+  <si>
+    <t>Patches.GeneCategoryDef+TMM_Romance.label</t>
+  </si>
+  <si>
+    <t>TMM_Romance.label</t>
+  </si>
+  <si>
+    <t>WVC - Xenotypes and Genes</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomGoodMeat.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomGoodMeat.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Base Generation Expanded &amp;&amp;  ~~  (( Optimization: Meats - C# Edition || Optimization: Leathers - C# Edition )) </t>
+  </si>
+  <si>
+    <t>random good meat</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomGoodMeat.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomGoodMeat.description</t>
+  </si>
+  <si>
+    <t>Spawn random meat.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomLightLeatherMeat.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomLightLeatherMeat.label</t>
+  </si>
+  <si>
+    <t>random meat (lightleather)</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomLightLeatherMeat.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomLightLeatherMeat.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomPlainLeatherMeat.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomPlainLeatherMeat.label</t>
+  </si>
+  <si>
+    <t>random meat (plainleather)</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomPlainLeatherMeat.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomPlainLeatherMeat.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomPantheraMeat.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomPantheraMeat.label</t>
+  </si>
+  <si>
+    <t>random meat (panthera fur)</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomPantheraMeat.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomPantheraMeat.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomLeather.label</t>
+  </si>
+  <si>
+    <t>TMM_RandomLeather.label</t>
+  </si>
+  <si>
+    <t>random leather</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+TMM_RandomLeather.description</t>
+  </si>
+  <si>
+    <t>TMM_RandomLeather.description</t>
+  </si>
+  <si>
+    <t>Spawn random leather.</t>
+  </si>
+  <si>
+    <t>치료</t>
+  </si>
+  <si>
+    <t>상원의원</t>
+  </si>
+  <si>
+    <t>무작위 희귀 부족 전리품</t>
+  </si>
+  <si>
+    <t>무작위 부족 전리품을 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 일반 부족 전리품</t>
+  </si>
+  <si>
+    <t>무작위 생식물</t>
+  </si>
+  <si>
+    <t>무작위 야생 음식을 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 전설 부족 무기</t>
+  </si>
+  <si>
+    <t>무작위 전설 부족 무기를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 음료</t>
+  </si>
+  <si>
+    <t>무작위 음료를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 일본식 음료</t>
+  </si>
+  <si>
+    <t>일본 세력을 위한 무작위 음료를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 청량음료</t>
+  </si>
+  <si>
+    <t>무작위 청량음료를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 시원한 음료</t>
+  </si>
+  <si>
+    <t>무작위 시원한 음료를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 아침 식사</t>
+  </si>
+  <si>
+    <t>무작위 아침 식사를 생성합니다.</t>
+  </si>
+  <si>
+    <t>냉장고 등을 위한 무작위 식사를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 초밥</t>
+  </si>
+  <si>
+    <t>무작위 초밥용 생선</t>
+  </si>
+  <si>
+    <t>무작위 초밥용 생선을 생성합니다.</t>
+  </si>
+  <si>
+    <t>대리 안돈</t>
+  </si>
+  <si>
+    <t>대리 안돈을 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 화분 식물</t>
+  </si>
+  <si>
+    <t>무작위 화분 식물을 생성합니다.</t>
+  </si>
+  <si>
+    <t>신경 매트릭스 관리</t>
+  </si>
+  <si>
+    <t>사격</t>
+  </si>
+  <si>
+    <t>격투</t>
+  </si>
+  <si>
+    <t>불안정성</t>
+  </si>
+  <si>
+    <t>유전자 조작</t>
+  </si>
+  <si>
+    <t>무작위 좋은 고기</t>
+  </si>
+  <si>
+    <t>무작위 고기를 생성합니다.</t>
+  </si>
+  <si>
+    <t>무작위 고기 (가벼운 가죽)</t>
+  </si>
+  <si>
+    <t>무작위 고기 (평범한 가죽)</t>
+  </si>
+  <si>
+    <t>무작위 가죽</t>
+  </si>
+  <si>
+    <t>무작위 가죽을 생성합니다.</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 공화국에서 선출된 상원의원이었습니다.\n\n[PAWN_pronoun](은)는 공화국의 이상을 발전시키기 위해 수년간 정책을 논의하고, 청문회에 참석하고, 복잡한 정치 세력의 관계망을 헤쳐나갔습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메카노이드 바노메트릭 코어 만들기</t>
+    <t>무작위 초밥을 생성합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메카노이드 바노메트릭 코어 만드는 중</t>
+    <t>휘청이는 자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맛있는 주입된 마요네즈를 먹었어. 정말 든든해!</t>
+    <t>사랑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맛있는 검은 마요네즈를 먹었어. 꽤 든든해!</t>
+    <t>무작위 고기 (고양이과 모피)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매우 튼튼한 구조물을 건설합니다. 위험한 것을 막거나 가두고 싶을 때 좋은 선택입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정신력 충전:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>메카노이드 베노메트릭 코어 만들기</t>
+  </si>
+  <si>
+    <t>메카노이드 베노메트릭 코어를 만듭니다.</t>
+  </si>
+  <si>
+    <t>메카노이드 베노메트릭 코어 만드는 중</t>
   </si>
 </sst>
 </file>
@@ -3205,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="D125" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3271,7 +4019,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>470</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -3532,12 +4280,12 @@
         <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>73</v>
@@ -3552,12 +4300,12 @@
         <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>83</v>
@@ -3572,12 +4320,12 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>83</v>
@@ -3592,12 +4340,12 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>83</v>
@@ -3612,12 +4360,12 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>83</v>
@@ -3632,12 +4380,12 @@
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>83</v>
@@ -3652,12 +4400,12 @@
         <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>83</v>
@@ -3672,12 +4420,12 @@
         <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -3692,12 +4440,12 @@
         <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>83</v>
@@ -3712,12 +4460,12 @@
         <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>83</v>
@@ -3732,12 +4480,12 @@
         <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -3752,12 +4500,12 @@
         <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>83</v>
@@ -3772,12 +4520,12 @@
         <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>83</v>
@@ -3792,12 +4540,12 @@
         <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
@@ -3812,12 +4560,12 @@
         <v>134</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
@@ -3832,12 +4580,12 @@
         <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>83</v>
@@ -3852,12 +4600,12 @@
         <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>83</v>
@@ -3872,12 +4620,12 @@
         <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
@@ -3889,15 +4637,15 @@
         <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
@@ -3912,12 +4660,12 @@
         <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>83</v>
@@ -3932,12 +4680,12 @@
         <v>158</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>83</v>
@@ -3952,12 +4700,12 @@
         <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>83</v>
@@ -3972,12 +4720,12 @@
         <v>166</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
@@ -3992,12 +4740,12 @@
         <v>170</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>83</v>
@@ -4012,12 +4760,12 @@
         <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>83</v>
@@ -4032,12 +4780,12 @@
         <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>83</v>
@@ -4052,12 +4800,12 @@
         <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>83</v>
@@ -4072,12 +4820,12 @@
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>83</v>
@@ -4092,12 +4840,12 @@
         <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>83</v>
@@ -4112,12 +4860,12 @@
         <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>83</v>
@@ -4132,12 +4880,12 @@
         <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>83</v>
@@ -4152,12 +4900,12 @@
         <v>202</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>83</v>
@@ -4172,12 +4920,12 @@
         <v>206</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>83</v>
@@ -4192,12 +4940,12 @@
         <v>210</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>83</v>
@@ -4212,12 +4960,12 @@
         <v>214</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>83</v>
@@ -4232,12 +4980,12 @@
         <v>218</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>83</v>
@@ -4252,12 +5000,12 @@
         <v>222</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>83</v>
@@ -4272,12 +5020,12 @@
         <v>226</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>83</v>
@@ -4292,12 +5040,12 @@
         <v>230</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>83</v>
@@ -4312,12 +5060,12 @@
         <v>234</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>83</v>
@@ -4332,12 +5080,12 @@
         <v>238</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>83</v>
@@ -4352,12 +5100,12 @@
         <v>242</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>83</v>
@@ -4372,12 +5120,12 @@
         <v>246</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>83</v>
@@ -4392,12 +5140,12 @@
         <v>250</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>83</v>
@@ -4412,12 +5160,12 @@
         <v>254</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>83</v>
@@ -4432,12 +5180,12 @@
         <v>258</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>83</v>
@@ -4452,12 +5200,12 @@
         <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>83</v>
@@ -4472,12 +5220,12 @@
         <v>266</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>83</v>
@@ -4492,12 +5240,12 @@
         <v>270</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>83</v>
@@ -4512,12 +5260,12 @@
         <v>274</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>83</v>
@@ -4532,12 +5280,12 @@
         <v>278</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>83</v>
@@ -4552,12 +5300,12 @@
         <v>282</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>83</v>
@@ -4572,12 +5320,12 @@
         <v>286</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>83</v>
@@ -4592,12 +5340,12 @@
         <v>290</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>83</v>
@@ -4612,12 +5360,12 @@
         <v>294</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>83</v>
@@ -4632,12 +5380,12 @@
         <v>298</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>83</v>
@@ -4652,12 +5400,12 @@
         <v>302</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>83</v>
@@ -4672,12 +5420,12 @@
         <v>306</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>83</v>
@@ -4692,12 +5440,12 @@
         <v>310</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>83</v>
@@ -4712,12 +5460,12 @@
         <v>314</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>83</v>
@@ -4732,12 +5480,12 @@
         <v>318</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>83</v>
@@ -4752,12 +5500,12 @@
         <v>322</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>17</v>
@@ -4802,16 +5550,13 @@
       <c r="D83" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>333</v>
@@ -4822,16 +5567,13 @@
       <c r="D84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>343</v>
@@ -4842,16 +5584,13 @@
       <c r="D85" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>343</v>
@@ -4862,16 +5601,13 @@
       <c r="D86" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>343</v>
@@ -4882,16 +5618,13 @@
       <c r="D87" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>343</v>
@@ -4902,19 +5635,16 @@
       <c r="D88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>360</v>
@@ -4926,15 +5656,15 @@
         <v>362</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>365</v>
@@ -4962,11 +5692,8 @@
       <c r="D91" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -4982,16 +5709,13 @@
       <c r="D92" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>369</v>
@@ -5002,16 +5726,13 @@
       <c r="D93" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>383</v>
@@ -5026,12 +5747,12 @@
         <v>386</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>333</v>
@@ -5042,11 +5763,8 @@
       <c r="D95" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -5062,11 +5780,8 @@
       <c r="D96" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -5082,11 +5797,8 @@
       <c r="D97" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -5102,16 +5814,13 @@
       <c r="D98" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>369</v>
@@ -5122,16 +5831,13 @@
       <c r="D99" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>408</v>
+      <c r="E99" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>409</v>
@@ -5142,16 +5848,13 @@
       <c r="D100" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>383</v>
@@ -5162,16 +5865,13 @@
       <c r="D101" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>383</v>
@@ -5182,16 +5882,13 @@
       <c r="D102" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>333</v>
@@ -5202,11 +5899,8 @@
       <c r="D103" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -5217,16 +5911,13 @@
         <v>333</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>431</v>
+      <c r="E104" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -5237,16 +5928,13 @@
         <v>333</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
@@ -5254,19 +5942,19 @@
         <v>435</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>335</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -5274,19 +5962,19 @@
         <v>440</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>335</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -5294,7 +5982,7 @@
         <v>444</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>55</v>
@@ -5306,7 +5994,7 @@
         <v>57</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -5314,7 +6002,7 @@
         <v>447</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>59</v>
@@ -5326,7 +6014,7 @@
         <v>60</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
@@ -5334,7 +6022,7 @@
         <v>449</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>62</v>
@@ -5346,7 +6034,7 @@
         <v>64</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -5354,7 +6042,7 @@
         <v>451</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>66</v>
@@ -5366,7 +6054,7 @@
         <v>67</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -5374,19 +6062,19 @@
         <v>453</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -5394,183 +6082,183 @@
         <v>458</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>543</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>369</v>
@@ -5581,151 +6269,1139 @@
       <c r="D123" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>538</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>537</v>
+        <v>725</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>539</v>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +7415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6083D7E-A76F-4617-9B61-287DE5998752}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5803,7 +7479,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -5896,48 +7572,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
